--- a/test/inputs/Scenarios_24_06.xlsx
+++ b/test/inputs/Scenarios_24_06.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tigerault\package\Wheat-BRIDGES\Root_BRIDGES\root_cynaps\simulations\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tigerault\package\Wheat-BRIDGES\Root_BRIDGES\root_cynaps\test\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A0050E-E241-4F06-96F0-CE94C38D4361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADCED27-F3B0-4812-8AC1-446B907A9FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1638,7 +1638,7 @@
     <t>root_3_leaves.pckl</t>
   </si>
   <si>
-    <t>root_1080.pckl</t>
+    <t>root_528.pckl</t>
   </si>
 </sst>
 </file>
@@ -2829,7 +2829,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/test/inputs/Scenarios_24_06.xlsx
+++ b/test/inputs/Scenarios_24_06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tigerault\package\Wheat-BRIDGES\Root_BRIDGES\root_cynaps\test\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADCED27-F3B0-4812-8AC1-446B907A9FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B75EAD3-5416-4FF4-8335-1CD026890BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="537">
   <si>
     <t>input_file</t>
   </si>
@@ -1639,6 +1639,12 @@
   </si>
   <si>
     <t>root_528.pckl</t>
+  </si>
+  <si>
+    <t>Input_RSML</t>
+  </si>
+  <si>
+    <t>M3591_47_LN_R4_D13.rsml</t>
   </si>
 </sst>
 </file>
@@ -2296,7 +2302,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2504,6 +2510,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2825,11 +2832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:I218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3"/>
+      <selection pane="topRight" activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2839,10 +2846,10 @@
     <col min="5" max="5" width="58.109375" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="19.5546875" style="37" customWidth="1"/>
-    <col min="8" max="8" width="39.88671875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="39.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>468</v>
       </c>
@@ -2867,8 +2874,11 @@
       <c r="H1" s="36" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="36" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
         <v>530</v>
       </c>
@@ -2893,8 +2903,11 @@
       <c r="H2" s="100" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="100" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>481</v>
       </c>
@@ -2919,8 +2932,11 @@
       <c r="H3" s="36" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="36" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>480</v>
       </c>
@@ -2945,8 +2961,11 @@
       <c r="H4" s="36" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="36" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>485</v>
       </c>
@@ -2971,8 +2990,11 @@
       <c r="H5" s="36" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="36" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>482</v>
       </c>
@@ -2997,8 +3019,11 @@
       <c r="H6" s="36" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="36" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -3023,8 +3048,11 @@
       <c r="H7" s="77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -3049,8 +3077,11 @@
       <c r="H8" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
         <v>443</v>
       </c>
@@ -3075,8 +3106,11 @@
       <c r="H9" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -3101,8 +3135,11 @@
       <c r="H10" s="85">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="85">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -3127,8 +3164,11 @@
       <c r="H11" s="78">
         <v>4.1666666999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="78">
+        <v>4.1666666999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -3153,8 +3193,11 @@
       <c r="H12" s="79">
         <v>4.1666666999999998E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="79">
+        <v>4.1666666999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
@@ -3179,8 +3222,11 @@
       <c r="H13" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>447</v>
       </c>
@@ -3205,8 +3251,11 @@
       <c r="H14" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
@@ -3231,8 +3280,11 @@
       <c r="H15" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -3257,8 +3309,11 @@
       <c r="H16" s="80">
         <v>5.0000000000000001E-9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="80">
+        <v>5.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>8</v>
       </c>
@@ -3283,8 +3338,11 @@
       <c r="H17" s="77">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>460</v>
       </c>
@@ -3309,8 +3367,11 @@
       <c r="H18" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>461</v>
       </c>
@@ -3335,8 +3396,11 @@
       <c r="H19" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>464</v>
       </c>
@@ -3361,8 +3425,11 @@
       <c r="H20" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>466</v>
       </c>
@@ -3387,8 +3454,11 @@
       <c r="H21" s="77">
         <v>86400</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="77">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
@@ -3413,8 +3483,11 @@
       <c r="H22" s="85" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>11</v>
       </c>
@@ -3439,8 +3512,11 @@
       <c r="H23" s="77">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>362</v>
       </c>
@@ -3465,8 +3541,11 @@
       <c r="H24" s="81" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>364</v>
       </c>
@@ -3491,8 +3570,11 @@
       <c r="H25" s="81" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>376</v>
       </c>
@@ -3517,8 +3599,11 @@
       <c r="H26" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>375</v>
       </c>
@@ -3543,8 +3628,11 @@
       <c r="H27" s="81" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>374</v>
       </c>
@@ -3569,8 +3657,11 @@
       <c r="H28" s="81" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>12</v>
       </c>
@@ -3595,8 +3686,11 @@
       <c r="H29" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>13</v>
       </c>
@@ -3621,8 +3715,11 @@
       <c r="H30" s="77">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="77">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>14</v>
       </c>
@@ -3647,8 +3744,11 @@
       <c r="H31" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>9</v>
       </c>
@@ -3673,8 +3773,11 @@
       <c r="H32" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>453</v>
       </c>
@@ -3699,8 +3802,11 @@
       <c r="H33" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>21</v>
       </c>
@@ -3725,8 +3831,11 @@
       <c r="H34" s="77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>22</v>
       </c>
@@ -3751,8 +3860,11 @@
       <c r="H35" s="85" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="85" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>23</v>
       </c>
@@ -3777,8 +3889,11 @@
       <c r="H36" s="80">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="80">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>24</v>
       </c>
@@ -3803,8 +3918,11 @@
       <c r="H37" s="86">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="86">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>25</v>
       </c>
@@ -3829,8 +3947,11 @@
       <c r="H38" s="77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>26</v>
       </c>
@@ -3855,8 +3976,11 @@
       <c r="H39" s="77" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>27</v>
       </c>
@@ -3881,8 +4005,11 @@
       <c r="H40" s="77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>28</v>
       </c>
@@ -3907,8 +4034,11 @@
       <c r="H41" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>29</v>
       </c>
@@ -3933,8 +4063,11 @@
       <c r="H42" s="77">
         <v>120</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="77">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>30</v>
       </c>
@@ -3959,8 +4092,11 @@
       <c r="H43" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>31</v>
       </c>
@@ -3985,8 +4121,11 @@
       <c r="H44" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>32</v>
       </c>
@@ -4011,8 +4150,11 @@
       <c r="H45" s="77">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="77">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>33</v>
       </c>
@@ -4037,8 +4179,11 @@
       <c r="H46" s="77">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="77">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>34</v>
       </c>
@@ -4063,8 +4208,11 @@
       <c r="H47" s="77">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="77">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>35</v>
       </c>
@@ -4089,8 +4237,11 @@
       <c r="H48" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>433</v>
       </c>
@@ -4115,8 +4266,11 @@
       <c r="H49" s="77">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="77">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>434</v>
       </c>
@@ -4141,8 +4295,11 @@
       <c r="H50" s="77">
         <v>1200</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="77">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>456</v>
       </c>
@@ -4167,8 +4324,11 @@
       <c r="H51" s="35" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="35" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>15</v>
       </c>
@@ -4193,8 +4353,11 @@
       <c r="H52" s="77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>16</v>
       </c>
@@ -4219,8 +4382,11 @@
       <c r="H53" s="77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>17</v>
       </c>
@@ -4245,8 +4411,11 @@
       <c r="H54" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>18</v>
       </c>
@@ -4271,8 +4440,11 @@
       <c r="H55" s="77">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>19</v>
       </c>
@@ -4297,8 +4469,11 @@
       <c r="H56" s="77">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" s="77">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>36</v>
       </c>
@@ -4323,8 +4498,11 @@
       <c r="H57" s="80">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" s="80">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>379</v>
       </c>
@@ -4349,8 +4527,11 @@
       <c r="H58" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>37</v>
       </c>
@@ -4375,8 +4556,11 @@
       <c r="H59" s="77">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" s="77">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>38</v>
       </c>
@@ -4401,8 +4585,11 @@
       <c r="H60" s="77">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" s="77">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>39</v>
       </c>
@@ -4427,8 +4614,11 @@
       <c r="H61" s="77">
         <v>6.9999999999999999E-4</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" s="77">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
         <v>40</v>
       </c>
@@ -4453,8 +4643,11 @@
       <c r="H62" s="77">
         <v>1.22E-4</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" s="77">
+        <v>1.22E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
         <v>206</v>
       </c>
@@ -4479,8 +4672,11 @@
       <c r="H63" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
         <v>41</v>
       </c>
@@ -4505,8 +4701,11 @@
       <c r="H64" s="77">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" s="77">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
         <v>405</v>
       </c>
@@ -4531,8 +4730,11 @@
       <c r="H65" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
         <v>90</v>
       </c>
@@ -4557,8 +4759,11 @@
       <c r="H66" s="77">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" s="77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>407</v>
       </c>
@@ -4583,8 +4788,11 @@
       <c r="H67" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
         <v>42</v>
       </c>
@@ -4609,8 +4817,11 @@
       <c r="H68" s="77">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" s="77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
         <v>207</v>
       </c>
@@ -4635,8 +4846,11 @@
       <c r="H69" s="78">
         <v>1453890.8941884842</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69" s="78">
+        <v>1453890.8941884842</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
         <v>43</v>
       </c>
@@ -4661,8 +4875,11 @@
       <c r="H70" s="78">
         <v>1.3888888888888888E-5</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70" s="78">
+        <v>1.3888888888888888E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
         <v>44</v>
       </c>
@@ -4687,8 +4904,11 @@
       <c r="H71" s="79">
         <v>6.5011574074074071E-4</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71" s="79">
+        <v>6.5011574074074071E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>45</v>
       </c>
@@ -4713,8 +4933,11 @@
       <c r="H72" s="85">
         <v>4.7400000000000003E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" s="85">
+        <v>4.7400000000000003E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
         <v>46</v>
       </c>
@@ -4739,8 +4962,11 @@
       <c r="H73" s="79">
         <v>282528</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73" s="79">
+        <v>282528</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
         <v>47</v>
       </c>
@@ -4765,8 +4991,11 @@
       <c r="H74" s="85">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74" s="85">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
         <v>48</v>
       </c>
@@ -4791,8 +5020,11 @@
       <c r="H75" s="87">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75" s="87">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
         <v>49</v>
       </c>
@@ -4817,8 +5049,11 @@
       <c r="H76" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
         <v>50</v>
       </c>
@@ -4843,8 +5078,11 @@
       <c r="H77" s="78">
         <v>745476480000</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77" s="78">
+        <v>745476480000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
         <v>204</v>
       </c>
@@ -4869,8 +5107,11 @@
       <c r="H78" s="77">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" s="77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
         <v>413</v>
       </c>
@@ -4895,8 +5136,11 @@
       <c r="H79" s="77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
         <v>399</v>
       </c>
@@ -4921,8 +5165,11 @@
       <c r="H80" s="85">
         <v>21600</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80" s="85">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
         <v>409</v>
       </c>
@@ -4947,8 +5194,11 @@
       <c r="H81" s="77">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81" s="77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
         <v>400</v>
       </c>
@@ -4973,8 +5223,11 @@
       <c r="H82" s="85">
         <v>60479.999999999993</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82" s="85">
+        <v>60479.999999999993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
         <v>410</v>
       </c>
@@ -4999,8 +5252,11 @@
       <c r="H83" s="77">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83" s="77">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
         <v>401</v>
       </c>
@@ -5025,8 +5281,11 @@
       <c r="H84" s="77">
         <v>518400</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84" s="77">
+        <v>518400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
         <v>411</v>
       </c>
@@ -5051,8 +5310,11 @@
       <c r="H85" s="77">
         <v>5184000</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85" s="77">
+        <v>5184000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="s">
         <v>51</v>
       </c>
@@ -5077,8 +5339,11 @@
       <c r="H86" s="86">
         <v>50000</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86" s="86">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="17" t="s">
         <v>52</v>
       </c>
@@ -5103,8 +5368,11 @@
       <c r="H87" s="77">
         <v>140000</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87" s="77">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
         <v>53</v>
       </c>
@@ -5129,8 +5397,11 @@
       <c r="H88" s="78">
         <v>3.6636136999999999E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88" s="78">
+        <v>3.6636136999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="17" t="s">
         <v>54</v>
       </c>
@@ -5155,8 +5426,11 @@
       <c r="H89" s="77">
         <v>4.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89" s="77">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="17" t="s">
         <v>55</v>
       </c>
@@ -5181,8 +5455,11 @@
       <c r="H90" s="77">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90" s="77">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
         <v>213</v>
       </c>
@@ -5207,8 +5484,11 @@
       <c r="H91" s="77">
         <v>6.0000000000000002E-6</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91" s="77">
+        <v>6.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="19" t="s">
         <v>214</v>
       </c>
@@ -5233,8 +5513,11 @@
       <c r="H92" s="77">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92" s="77">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
         <v>215</v>
       </c>
@@ -5259,8 +5542,11 @@
       <c r="H93" s="77">
         <v>374999999.99999994</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93" s="77">
+        <v>374999999.99999994</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
         <v>216</v>
       </c>
@@ -5285,8 +5571,11 @@
       <c r="H94" s="78">
         <v>3.7037037037037038E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94" s="78">
+        <v>3.7037037037037038E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
         <v>217</v>
       </c>
@@ -5311,8 +5600,11 @@
       <c r="H95" s="77">
         <v>165600</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95" s="77">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>60</v>
       </c>
@@ -5337,8 +5629,11 @@
       <c r="H96" s="77">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96" s="77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>208</v>
       </c>
@@ -5363,8 +5658,11 @@
       <c r="H97" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>59</v>
       </c>
@@ -5389,8 +5687,11 @@
       <c r="H98" s="77">
         <v>21</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98" s="77">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="23" t="s">
         <v>65</v>
       </c>
@@ -5415,8 +5716,11 @@
       <c r="H99" s="77">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99" s="77">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="23" t="s">
         <v>366</v>
       </c>
@@ -5441,8 +5745,11 @@
       <c r="H100" s="77">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100" s="77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="23" t="s">
         <v>367</v>
       </c>
@@ -5467,8 +5774,11 @@
       <c r="H101" s="77">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101" s="77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="23" t="s">
         <v>368</v>
       </c>
@@ -5493,8 +5803,11 @@
       <c r="H102" s="77">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102" s="77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="23" t="s">
         <v>500</v>
       </c>
@@ -5519,8 +5832,11 @@
       <c r="H103" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="23" t="s">
         <v>384</v>
       </c>
@@ -5545,8 +5861,11 @@
       <c r="H104" s="77">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104" s="77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="23" t="s">
         <v>501</v>
       </c>
@@ -5573,8 +5892,12 @@
         <f>H103</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105" s="58">
+        <f>I103</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="23" t="s">
         <v>502</v>
       </c>
@@ -5601,8 +5924,12 @@
         <f>150*H103</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106" s="58">
+        <f>150*I103</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="23" t="s">
         <v>503</v>
       </c>
@@ -5629,8 +5956,12 @@
         <f>H98</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107" s="58">
+        <f>I98</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="23" t="s">
         <v>504</v>
       </c>
@@ -5657,8 +5988,12 @@
         <f>70*H98</f>
         <v>1470</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108" s="58">
+        <f>70*I98</f>
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="23" t="s">
         <v>386</v>
       </c>
@@ -5683,8 +6018,11 @@
       <c r="H109" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="s">
         <v>388</v>
       </c>
@@ -5709,8 +6047,11 @@
       <c r="H110" s="82">
         <v>1589759.9999999998</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110" s="82">
+        <v>1589759.9999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="23" t="s">
         <v>390</v>
       </c>
@@ -5735,8 +6076,11 @@
       <c r="H111" s="82">
         <v>6171428.5714285718</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111" s="82">
+        <v>6171428.5714285718</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="23" t="s">
         <v>392</v>
       </c>
@@ -5761,8 +6105,11 @@
       <c r="H112" s="82">
         <v>6171428.5714285718</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112" s="82">
+        <v>6171428.5714285718</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="23" t="s">
         <v>420</v>
       </c>
@@ -5787,8 +6134,11 @@
       <c r="H113" s="82">
         <v>100</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I113" s="82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="23" t="s">
         <v>422</v>
       </c>
@@ -5815,8 +6165,12 @@
         <f>0.1 * 3.25 * (60*60*24)</f>
         <v>28080</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114" s="67">
+        <f>0.1 * 3.25 * (60*60*24)</f>
+        <v>28080</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="23" t="s">
         <v>424</v>
       </c>
@@ -5843,8 +6197,12 @@
         <f>1.11 / 10</f>
         <v>0.11100000000000002</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115" s="67">
+        <f>1.11 / 10</f>
+        <v>0.11100000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="23" t="s">
         <v>497</v>
       </c>
@@ -5869,8 +6227,11 @@
       <c r="H116" s="82">
         <v>100</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I116" s="82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="23" t="s">
         <v>498</v>
       </c>
@@ -5897,8 +6258,12 @@
         <f>5.32 * (60*60*24)</f>
         <v>459648</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117" s="67">
+        <f>5.32 * (60*60*24)</f>
+        <v>459648</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="23" t="s">
         <v>499</v>
       </c>
@@ -5925,8 +6290,12 @@
         <f>1.11/8</f>
         <v>0.13875000000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118" s="67">
+        <f>1.11/8</f>
+        <v>0.13875000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="23" t="s">
         <v>394</v>
       </c>
@@ -5951,8 +6320,11 @@
       <c r="H119" s="82">
         <v>21600</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119" s="82">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="23" t="s">
         <v>396</v>
       </c>
@@ -5977,8 +6349,11 @@
       <c r="H120" s="88">
         <v>43200</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120" s="88">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
         <v>61</v>
       </c>
@@ -6003,8 +6378,11 @@
       <c r="H121" s="77">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121" s="77">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>62</v>
       </c>
@@ -6030,8 +6408,12 @@
         <f>1250*0.000001/6</f>
         <v>2.0833333333333335E-4</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122" s="78">
+        <f>1250*0.000001/6</f>
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="13" t="s">
         <v>63</v>
       </c>
@@ -6056,8 +6438,11 @@
       <c r="H123" s="77">
         <v>5.7899999999999998E-7</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123" s="77">
+        <v>5.7899999999999998E-7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
         <v>64</v>
       </c>
@@ -6082,8 +6467,11 @@
       <c r="H124" s="78">
         <v>2.0833333333333335E-4</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124" s="78">
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
         <v>449</v>
       </c>
@@ -6108,8 +6496,11 @@
       <c r="H125" s="78">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
         <v>451</v>
       </c>
@@ -6134,8 +6525,11 @@
       <c r="H126" s="78">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="68" t="s">
         <v>440</v>
       </c>
@@ -6158,8 +6552,11 @@
       <c r="H127" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="68" t="s">
         <v>67</v>
       </c>
@@ -6182,8 +6579,11 @@
       <c r="H128" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="68" t="s">
         <v>445</v>
       </c>
@@ -6208,8 +6608,11 @@
       <c r="H129" s="89" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129" s="89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="21" t="s">
         <v>66</v>
       </c>
@@ -6234,8 +6637,11 @@
       <c r="H130" s="83">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130" s="83">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="21" t="s">
         <v>437</v>
       </c>
@@ -6260,8 +6666,11 @@
       <c r="H131" s="83">
         <v>4.9999999999999999E-13</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131" s="83">
+        <v>4.9999999999999999E-13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="21" t="s">
         <v>228</v>
       </c>
@@ -6286,8 +6695,11 @@
       <c r="H132" s="77">
         <v>10</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132" s="77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="21" t="s">
         <v>229</v>
       </c>
@@ -6312,8 +6724,11 @@
       <c r="H133" s="77">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133" s="77">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="21" t="s">
         <v>230</v>
       </c>
@@ -6338,8 +6753,11 @@
       <c r="H134" s="77">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134" s="77">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="21" t="s">
         <v>231</v>
       </c>
@@ -6364,8 +6782,11 @@
       <c r="H135" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="21" t="s">
         <v>68</v>
       </c>
@@ -6390,8 +6811,11 @@
       <c r="H136" s="80">
         <v>1.9999999999999999E-7</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136" s="80">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="21" t="s">
         <v>232</v>
       </c>
@@ -6416,8 +6840,11 @@
       <c r="H137" s="77">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137" s="77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="21" t="s">
         <v>233</v>
       </c>
@@ -6442,8 +6869,11 @@
       <c r="H138" s="77">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138" s="77">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="21" t="s">
         <v>234</v>
       </c>
@@ -6468,8 +6898,11 @@
       <c r="H139" s="77">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139" s="77">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="21" t="s">
         <v>235</v>
       </c>
@@ -6494,8 +6927,11 @@
       <c r="H140" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I140" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="21" t="s">
         <v>69</v>
       </c>
@@ -6520,8 +6956,11 @@
       <c r="H141" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="72" t="s">
         <v>70</v>
       </c>
@@ -6546,8 +6985,11 @@
       <c r="H142" s="80">
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142" s="80">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="23" t="s">
         <v>56</v>
       </c>
@@ -6572,8 +7014,11 @@
       <c r="H143" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I143" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="23" t="s">
         <v>57</v>
       </c>
@@ -6598,8 +7043,11 @@
       <c r="H144" s="77">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144" s="77">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="23" t="s">
         <v>58</v>
       </c>
@@ -6624,8 +7072,11 @@
       <c r="H145" s="80">
         <v>3.9999999999999998E-6</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145" s="80">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="23" t="s">
         <v>71</v>
       </c>
@@ -6650,8 +7101,11 @@
       <c r="H146" s="80">
         <v>3.7699999999999999E-10</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146" s="80">
+        <v>3.7699999999999999E-10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="23" t="s">
         <v>236</v>
       </c>
@@ -6676,8 +7130,11 @@
       <c r="H147" s="77">
         <v>20</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147" s="77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="23" t="s">
         <v>237</v>
       </c>
@@ -6702,8 +7159,11 @@
       <c r="H148" s="77">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148" s="77">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="23" t="s">
         <v>238</v>
       </c>
@@ -6728,8 +7188,11 @@
       <c r="H149" s="77">
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149" s="77">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="23" t="s">
         <v>239</v>
       </c>
@@ -6754,8 +7217,11 @@
       <c r="H150" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I150" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="23" t="s">
         <v>72</v>
       </c>
@@ -6780,8 +7246,11 @@
       <c r="H151" s="80">
         <v>4.0000000000000003E-5</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I151" s="80">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
         <v>73</v>
       </c>
@@ -6806,8 +7275,11 @@
       <c r="H152" s="80">
         <v>5.8333333333333335E-9</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152" s="80">
+        <v>5.8333333333333335E-9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="13" t="s">
         <v>240</v>
       </c>
@@ -6832,8 +7304,11 @@
       <c r="H153" s="77">
         <v>20</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153" s="77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="13" t="s">
         <v>241</v>
       </c>
@@ -6858,8 +7333,11 @@
       <c r="H154" s="77">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154" s="77">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="13" t="s">
         <v>242</v>
       </c>
@@ -6884,8 +7362,11 @@
       <c r="H155" s="77">
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I155" s="77">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
         <v>243</v>
       </c>
@@ -6910,8 +7391,11 @@
       <c r="H156" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I156" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="13" t="s">
         <v>74</v>
       </c>
@@ -6936,8 +7420,11 @@
       <c r="H157" s="80">
         <v>4.0000000000000003E-5</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I157" s="80">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>75</v>
       </c>
@@ -6962,8 +7449,11 @@
       <c r="H158" s="83">
         <v>4.0000000000000001E-8</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I158" s="83">
+        <v>4.0000000000000001E-8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>218</v>
       </c>
@@ -6988,8 +7478,11 @@
       <c r="H159" s="77">
         <v>20</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I159" s="77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>219</v>
       </c>
@@ -7014,8 +7507,11 @@
       <c r="H160" s="77">
         <v>-4.4200000000000003E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I160" s="77">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>220</v>
       </c>
@@ -7040,8 +7536,11 @@
       <c r="H161" s="77">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I161" s="77">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>221</v>
       </c>
@@ -7066,8 +7565,11 @@
       <c r="H162" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I162" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>76</v>
       </c>
@@ -7092,8 +7594,11 @@
       <c r="H163" s="77">
         <v>2.7799999999999998E-4</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I163" s="77">
+        <v>2.7799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="25" t="s">
         <v>78</v>
       </c>
@@ -7118,8 +7623,11 @@
       <c r="H164" s="84">
         <v>2.4999999999999998E-12</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I164" s="84">
+        <v>2.4999999999999998E-12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="25" t="s">
         <v>245</v>
       </c>
@@ -7144,8 +7652,11 @@
       <c r="H165" s="77">
         <v>20</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I165" s="77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="25" t="s">
         <v>246</v>
       </c>
@@ -7170,8 +7681,11 @@
       <c r="H166" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I166" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="25" t="s">
         <v>247</v>
       </c>
@@ -7196,8 +7710,11 @@
       <c r="H167" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I167" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="25" t="s">
         <v>248</v>
       </c>
@@ -7222,8 +7739,11 @@
       <c r="H168" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I168" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="25" t="s">
         <v>79</v>
       </c>
@@ -7248,8 +7768,11 @@
       <c r="H169" s="77">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I169" s="77">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="31" t="s">
         <v>80</v>
       </c>
@@ -7274,8 +7797,11 @@
       <c r="H170" s="86">
         <v>2.0000000000000001E-9</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I170" s="86">
+        <v>2.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="31" t="s">
         <v>249</v>
       </c>
@@ -7300,8 +7826,11 @@
       <c r="H171" s="77">
         <v>25</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I171" s="77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="31" t="s">
         <v>250</v>
       </c>
@@ -7326,8 +7855,11 @@
       <c r="H172" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I172" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="31" t="s">
         <v>251</v>
       </c>
@@ -7352,8 +7884,11 @@
       <c r="H173" s="77">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I173" s="77">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="31" t="s">
         <v>252</v>
       </c>
@@ -7378,8 +7913,11 @@
       <c r="H174" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I174" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="31" t="s">
         <v>81</v>
       </c>
@@ -7404,8 +7942,11 @@
       <c r="H175" s="78">
         <v>1.6666666666666666E-4</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I175" s="78">
+        <v>1.6666666666666666E-4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="11" t="s">
         <v>253</v>
       </c>
@@ -7430,8 +7971,11 @@
       <c r="H176" s="80">
         <v>1E-8</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I176" s="80">
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="11" t="s">
         <v>254</v>
       </c>
@@ -7456,8 +8000,11 @@
       <c r="H177" s="77">
         <v>20</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I177" s="77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="11" t="s">
         <v>255</v>
       </c>
@@ -7482,8 +8029,11 @@
       <c r="H178" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I178" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
         <v>256</v>
       </c>
@@ -7508,8 +8058,11 @@
       <c r="H179" s="77">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I179" s="77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
         <v>257</v>
       </c>
@@ -7534,8 +8087,11 @@
       <c r="H180" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I180" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
         <v>258</v>
       </c>
@@ -7560,8 +8116,11 @@
       <c r="H181" s="78">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I181" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="11" t="s">
         <v>259</v>
       </c>
@@ -7586,8 +8145,11 @@
       <c r="H182" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I182" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="27" t="s">
         <v>260</v>
       </c>
@@ -7612,8 +8174,11 @@
       <c r="H183" s="77">
         <v>2.3533050791148899E-8</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I183" s="77">
+        <v>2.3533050791148899E-8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="27" t="s">
         <v>261</v>
       </c>
@@ -7638,8 +8203,11 @@
       <c r="H184" s="77">
         <v>20</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I184" s="77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="27" t="s">
         <v>262</v>
       </c>
@@ -7664,8 +8232,11 @@
       <c r="H185" s="77">
         <v>-0.187</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I185" s="77">
+        <v>-0.187</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="27" t="s">
         <v>263</v>
       </c>
@@ -7690,8 +8261,11 @@
       <c r="H186" s="77">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I186" s="77">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="27" t="s">
         <v>264</v>
       </c>
@@ -7716,8 +8290,11 @@
       <c r="H187" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I187" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="27" t="s">
         <v>265</v>
       </c>
@@ -7742,8 +8319,11 @@
       <c r="H188" s="77">
         <v>6.1060227588121015E-4</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I188" s="77">
+        <v>6.1060227588121015E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="23" t="s">
         <v>266</v>
       </c>
@@ -7768,8 +8348,11 @@
       <c r="H189" s="85">
         <v>3.9999999999999998E-7</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I189" s="85">
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="23" t="s">
         <v>267</v>
       </c>
@@ -7794,8 +8377,11 @@
       <c r="H190" s="77">
         <v>25</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I190" s="77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="23" t="s">
         <v>268</v>
       </c>
@@ -7820,8 +8406,11 @@
       <c r="H191" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I191" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="23" t="s">
         <v>269</v>
       </c>
@@ -7846,8 +8435,11 @@
       <c r="H192" s="77">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I192" s="77">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="23" t="s">
         <v>270</v>
       </c>
@@ -7872,8 +8464,11 @@
       <c r="H193" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I193" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="23" t="s">
         <v>271</v>
       </c>
@@ -7898,8 +8493,11 @@
       <c r="H194" s="78">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I194" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
         <v>272</v>
       </c>
@@ -7924,8 +8522,11 @@
       <c r="H195" s="85">
         <v>3.9999999999999998E-7</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I195" s="85">
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
         <v>273</v>
       </c>
@@ -7950,8 +8551,11 @@
       <c r="H196" s="77">
         <v>25</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I196" s="77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
         <v>274</v>
       </c>
@@ -7976,8 +8580,11 @@
       <c r="H197" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I197" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
         <v>275</v>
       </c>
@@ -8002,8 +8609,11 @@
       <c r="H198" s="77">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I198" s="77">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>276</v>
       </c>
@@ -8028,8 +8638,11 @@
       <c r="H199" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I199" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
         <v>277</v>
       </c>
@@ -8054,8 +8667,11 @@
       <c r="H200" s="78">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I200" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="29" t="s">
         <v>278</v>
       </c>
@@ -8080,8 +8696,11 @@
       <c r="H201" s="85">
         <v>1.9999999999999999E-7</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I201" s="85">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="29" t="s">
         <v>279</v>
       </c>
@@ -8106,8 +8725,11 @@
       <c r="H202" s="77">
         <v>25</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I202" s="77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="29" t="s">
         <v>280</v>
       </c>
@@ -8132,8 +8754,11 @@
       <c r="H203" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I203" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="29" t="s">
         <v>281</v>
       </c>
@@ -8158,8 +8783,11 @@
       <c r="H204" s="77">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I204" s="77">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="29" t="s">
         <v>282</v>
       </c>
@@ -8184,8 +8812,11 @@
       <c r="H205" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I205" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="29" t="s">
         <v>283</v>
       </c>
@@ -8210,15 +8841,18 @@
       <c r="H206" s="78">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I206" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="90" t="s">
         <v>361</v>
       </c>
       <c r="B207" s="91" t="s">
         <v>470</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="92" t="s">
         <v>529</v>
       </c>
       <c r="D207" s="92" t="s">
@@ -8236,8 +8870,11 @@
       <c r="H207" s="95" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I207" s="95" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>490</v>
       </c>
@@ -8262,8 +8899,11 @@
       <c r="H208" s="2">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I208" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>494</v>
       </c>
@@ -8288,8 +8928,11 @@
       <c r="H209" s="98">
         <v>-100000</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I209" s="98">
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>516</v>
       </c>
@@ -8315,8 +8958,12 @@
         <f>H209</f>
         <v>-100000</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I210" s="98">
+        <f>I209</f>
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>507</v>
       </c>
@@ -8341,8 +8988,11 @@
       <c r="H211" s="99">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I211" s="99">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>508</v>
       </c>
@@ -8367,8 +9017,11 @@
       <c r="H212" s="99" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I212" s="99" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>509</v>
       </c>
@@ -8393,8 +9046,11 @@
       <c r="H213" s="99">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I213" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>510</v>
       </c>
@@ -8419,8 +9075,11 @@
       <c r="H214" s="99">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I214" s="99">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>518</v>
       </c>
@@ -8445,8 +9104,11 @@
       <c r="H215" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I215" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>520</v>
       </c>
@@ -8473,8 +9135,12 @@
         <f>1250*0.000001/5</f>
         <v>2.5000000000000001E-4</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I216" s="98">
+        <f>1250*0.000001/5</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>523</v>
       </c>
@@ -8499,8 +9165,11 @@
       <c r="H217" s="99">
         <v>9.9999999999999994E-12</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I217" s="99">
+        <v>9.9999999999999994E-12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>526</v>
       </c>
@@ -8525,9 +9194,12 @@
       <c r="H218" s="98">
         <v>2.0000000000000001E-4</v>
       </c>
+      <c r="I218" s="98">
+        <v>2.0000000000000001E-4</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H125:H126">
+  <conditionalFormatting sqref="H125:I126">
     <cfRule type="colorScale" priority="243">
       <colorScale>
         <cfvo type="min"/>
@@ -8539,7 +9211,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H130">
+  <conditionalFormatting sqref="H130:I130">
     <cfRule type="colorScale" priority="244">
       <colorScale>
         <cfvo type="min"/>
@@ -8561,7 +9233,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H131">
+  <conditionalFormatting sqref="H131:I131">
     <cfRule type="colorScale" priority="246">
       <colorScale>
         <cfvo type="min"/>
@@ -8583,7 +9255,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H136">
+  <conditionalFormatting sqref="H136:I136">
     <cfRule type="colorScale" priority="248">
       <colorScale>
         <cfvo type="min"/>
@@ -8595,7 +9267,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H142">
+  <conditionalFormatting sqref="H142:I142">
     <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="min"/>
@@ -8627,7 +9299,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H158">
+  <conditionalFormatting sqref="H158:I158">
     <cfRule type="colorScale" priority="252">
       <colorScale>
         <cfvo type="min"/>
@@ -8659,7 +9331,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H164">
+  <conditionalFormatting sqref="H164:I164">
     <cfRule type="colorScale" priority="255">
       <colorScale>
         <cfvo type="min"/>

--- a/test/inputs/Scenarios_24_06.xlsx
+++ b/test/inputs/Scenarios_24_06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tigerault\package\Wheat-BRIDGES\Root_BRIDGES\root_cynaps\test\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B75EAD3-5416-4FF4-8335-1CD026890BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E356698-EDC1-4CEE-B35F-556DD24A44F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="547">
   <si>
     <t>input_file</t>
   </si>
@@ -1641,10 +1641,40 @@
     <t>root_528.pckl</t>
   </si>
   <si>
-    <t>Input_RSML</t>
-  </si>
-  <si>
     <t>M3591_47_LN_R4_D13.rsml</t>
+  </si>
+  <si>
+    <t>Input_RSML_D1</t>
+  </si>
+  <si>
+    <t>M3530_47_LN_R4_D1.rsml</t>
+  </si>
+  <si>
+    <t>Input_RSML_D11</t>
+  </si>
+  <si>
+    <t>M3583_47_LN_R4_D11.rsml</t>
+  </si>
+  <si>
+    <t>Input_RSML_D13</t>
+  </si>
+  <si>
+    <t>M3569_47_LN_R4_D9.rsml</t>
+  </si>
+  <si>
+    <t>Input_RSML_D9</t>
+  </si>
+  <si>
+    <t>Input_RSML_D5</t>
+  </si>
+  <si>
+    <t>M3553_47_LN_R4_D5.rsml</t>
+  </si>
+  <si>
+    <t>Input_RSML_D3</t>
+  </si>
+  <si>
+    <t>M3544_47_LN_R4_D3.rsml</t>
   </si>
 </sst>
 </file>
@@ -2302,7 +2332,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2510,7 +2540,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2832,11 +2861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I218"/>
+  <dimension ref="A1:N218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E221" sqref="E221"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2846,10 +2875,10 @@
     <col min="5" max="5" width="58.109375" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="19.5546875" style="37" customWidth="1"/>
-    <col min="8" max="9" width="39.88671875" style="1" customWidth="1"/>
+    <col min="8" max="14" width="39.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>468</v>
       </c>
@@ -2875,10 +2904,25 @@
         <v>493</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>542</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>543</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
         <v>530</v>
       </c>
@@ -2904,10 +2948,25 @@
         <v>534</v>
       </c>
       <c r="I2" s="100" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+      <c r="J2" s="100" t="s">
+        <v>537</v>
+      </c>
+      <c r="K2" s="100" t="s">
+        <v>539</v>
+      </c>
+      <c r="L2" s="100" t="s">
+        <v>541</v>
+      </c>
+      <c r="M2" s="100" t="s">
+        <v>544</v>
+      </c>
+      <c r="N2" s="100" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>481</v>
       </c>
@@ -2935,8 +2994,23 @@
       <c r="I3" s="36" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>480</v>
       </c>
@@ -2964,8 +3038,23 @@
       <c r="I4" s="36" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>485</v>
       </c>
@@ -2993,8 +3082,23 @@
       <c r="I5" s="36" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>482</v>
       </c>
@@ -3022,8 +3126,23 @@
       <c r="I6" s="36" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -3051,8 +3170,23 @@
       <c r="I7" s="77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,8 +3214,23 @@
       <c r="I8" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="77">
+        <v>1</v>
+      </c>
+      <c r="K8" s="77">
+        <v>1</v>
+      </c>
+      <c r="L8" s="77">
+        <v>1</v>
+      </c>
+      <c r="M8" s="77">
+        <v>1</v>
+      </c>
+      <c r="N8" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
         <v>443</v>
       </c>
@@ -3109,8 +3258,23 @@
       <c r="I9" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -3138,8 +3302,23 @@
       <c r="I10" s="85">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="85">
+        <v>180</v>
+      </c>
+      <c r="K10" s="85">
+        <v>180</v>
+      </c>
+      <c r="L10" s="85">
+        <v>180</v>
+      </c>
+      <c r="M10" s="85">
+        <v>180</v>
+      </c>
+      <c r="N10" s="85">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -3167,8 +3346,23 @@
       <c r="I11" s="78">
         <v>4.1666666999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="78">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="K11" s="78">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="L11" s="78">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="M11" s="78">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="N11" s="78">
+        <v>4.1666666999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -3196,8 +3390,23 @@
       <c r="I12" s="79">
         <v>4.1666666999999998E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="79">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="K12" s="79">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="L12" s="79">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="M12" s="79">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="N12" s="79">
+        <v>4.1666666999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
@@ -3225,8 +3434,23 @@
       <c r="I13" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="77">
+        <v>1</v>
+      </c>
+      <c r="K13" s="77">
+        <v>1</v>
+      </c>
+      <c r="L13" s="77">
+        <v>1</v>
+      </c>
+      <c r="M13" s="77">
+        <v>1</v>
+      </c>
+      <c r="N13" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>447</v>
       </c>
@@ -3254,8 +3478,23 @@
       <c r="I14" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="77">
+        <v>0</v>
+      </c>
+      <c r="K14" s="77">
+        <v>0</v>
+      </c>
+      <c r="L14" s="77">
+        <v>0</v>
+      </c>
+      <c r="M14" s="77">
+        <v>0</v>
+      </c>
+      <c r="N14" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
@@ -3283,8 +3522,23 @@
       <c r="I15" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -3312,8 +3566,23 @@
       <c r="I16" s="80">
         <v>5.0000000000000001E-9</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="80">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="K16" s="80">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="L16" s="80">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="M16" s="80">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="N16" s="80">
+        <v>5.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>8</v>
       </c>
@@ -3341,8 +3610,23 @@
       <c r="I17" s="77">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="77">
+        <v>10</v>
+      </c>
+      <c r="K17" s="77">
+        <v>10</v>
+      </c>
+      <c r="L17" s="77">
+        <v>10</v>
+      </c>
+      <c r="M17" s="77">
+        <v>10</v>
+      </c>
+      <c r="N17" s="77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>460</v>
       </c>
@@ -3370,8 +3654,23 @@
       <c r="I18" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>461</v>
       </c>
@@ -3399,8 +3698,23 @@
       <c r="I19" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="N19" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>464</v>
       </c>
@@ -3428,8 +3742,23 @@
       <c r="I20" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="N20" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>466</v>
       </c>
@@ -3457,8 +3786,23 @@
       <c r="I21" s="77">
         <v>86400</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="77">
+        <v>86400</v>
+      </c>
+      <c r="K21" s="77">
+        <v>86400</v>
+      </c>
+      <c r="L21" s="77">
+        <v>86400</v>
+      </c>
+      <c r="M21" s="77">
+        <v>86400</v>
+      </c>
+      <c r="N21" s="77">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
@@ -3486,8 +3830,23 @@
       <c r="I22" s="85" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="85" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>11</v>
       </c>
@@ -3515,8 +3874,23 @@
       <c r="I23" s="77">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="77">
+        <v>3</v>
+      </c>
+      <c r="K23" s="77">
+        <v>3</v>
+      </c>
+      <c r="L23" s="77">
+        <v>3</v>
+      </c>
+      <c r="M23" s="77">
+        <v>3</v>
+      </c>
+      <c r="N23" s="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>362</v>
       </c>
@@ -3544,8 +3918,23 @@
       <c r="I24" s="81" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="M24" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="N24" s="81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>364</v>
       </c>
@@ -3573,8 +3962,23 @@
       <c r="I25" s="81" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="M25" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" s="81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>376</v>
       </c>
@@ -3602,8 +4006,23 @@
       <c r="I26" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="M26" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>375</v>
       </c>
@@ -3631,8 +4050,23 @@
       <c r="I27" s="81" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="M27" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27" s="81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>374</v>
       </c>
@@ -3660,8 +4094,23 @@
       <c r="I28" s="81" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="M28" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="N28" s="81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>12</v>
       </c>
@@ -3689,8 +4138,23 @@
       <c r="I29" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="M29" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="N29" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>13</v>
       </c>
@@ -3718,8 +4182,23 @@
       <c r="I30" s="77">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="77">
+        <v>0.33</v>
+      </c>
+      <c r="K30" s="77">
+        <v>0.33</v>
+      </c>
+      <c r="L30" s="77">
+        <v>0.33</v>
+      </c>
+      <c r="M30" s="77">
+        <v>0.33</v>
+      </c>
+      <c r="N30" s="77">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>14</v>
       </c>
@@ -3747,8 +4226,23 @@
       <c r="I31" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="L31" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="M31" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="N31" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>9</v>
       </c>
@@ -3776,8 +4270,23 @@
       <c r="I32" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K32" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="M32" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="N32" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>453</v>
       </c>
@@ -3805,8 +4314,23 @@
       <c r="I33" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="M33" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="N33" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>21</v>
       </c>
@@ -3834,8 +4358,23 @@
       <c r="I34" s="77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="L34" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="M34" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="N34" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>22</v>
       </c>
@@ -3863,8 +4402,23 @@
       <c r="I35" s="85" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="85" t="s">
+        <v>432</v>
+      </c>
+      <c r="K35" s="85" t="s">
+        <v>432</v>
+      </c>
+      <c r="L35" s="85" t="s">
+        <v>432</v>
+      </c>
+      <c r="M35" s="85" t="s">
+        <v>432</v>
+      </c>
+      <c r="N35" s="85" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>23</v>
       </c>
@@ -3892,8 +4446,23 @@
       <c r="I36" s="80">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="80">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K36" s="80">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L36" s="80">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M36" s="80">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="N36" s="80">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>24</v>
       </c>
@@ -3921,8 +4490,23 @@
       <c r="I37" s="86">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="86">
+        <v>1E-3</v>
+      </c>
+      <c r="K37" s="86">
+        <v>1E-3</v>
+      </c>
+      <c r="L37" s="86">
+        <v>1E-3</v>
+      </c>
+      <c r="M37" s="86">
+        <v>1E-3</v>
+      </c>
+      <c r="N37" s="86">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>25</v>
       </c>
@@ -3950,8 +4534,23 @@
       <c r="I38" s="77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="K38" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="L38" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="M38" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="N38" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>26</v>
       </c>
@@ -3979,8 +4578,23 @@
       <c r="I39" s="77" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="K39" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="L39" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="M39" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="N39" s="77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>27</v>
       </c>
@@ -4008,8 +4622,23 @@
       <c r="I40" s="77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="L40" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="M40" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="N40" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>28</v>
       </c>
@@ -4037,8 +4666,23 @@
       <c r="I41" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="L41" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="M41" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="N41" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>29</v>
       </c>
@@ -4066,8 +4710,23 @@
       <c r="I42" s="77">
         <v>120</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="77">
+        <v>120</v>
+      </c>
+      <c r="K42" s="77">
+        <v>120</v>
+      </c>
+      <c r="L42" s="77">
+        <v>120</v>
+      </c>
+      <c r="M42" s="77">
+        <v>120</v>
+      </c>
+      <c r="N42" s="77">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>30</v>
       </c>
@@ -4095,8 +4754,23 @@
       <c r="I43" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="77">
+        <v>0</v>
+      </c>
+      <c r="K43" s="77">
+        <v>0</v>
+      </c>
+      <c r="L43" s="77">
+        <v>0</v>
+      </c>
+      <c r="M43" s="77">
+        <v>0</v>
+      </c>
+      <c r="N43" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>31</v>
       </c>
@@ -4124,8 +4798,23 @@
       <c r="I44" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="77">
+        <v>0</v>
+      </c>
+      <c r="K44" s="77">
+        <v>0</v>
+      </c>
+      <c r="L44" s="77">
+        <v>0</v>
+      </c>
+      <c r="M44" s="77">
+        <v>0</v>
+      </c>
+      <c r="N44" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>32</v>
       </c>
@@ -4153,8 +4842,23 @@
       <c r="I45" s="77">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="77">
+        <v>-0.1</v>
+      </c>
+      <c r="K45" s="77">
+        <v>-0.1</v>
+      </c>
+      <c r="L45" s="77">
+        <v>-0.1</v>
+      </c>
+      <c r="M45" s="77">
+        <v>-0.1</v>
+      </c>
+      <c r="N45" s="77">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>33</v>
       </c>
@@ -4182,8 +4886,23 @@
       <c r="I46" s="77">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="77">
+        <v>-0.2</v>
+      </c>
+      <c r="K46" s="77">
+        <v>-0.2</v>
+      </c>
+      <c r="L46" s="77">
+        <v>-0.2</v>
+      </c>
+      <c r="M46" s="77">
+        <v>-0.2</v>
+      </c>
+      <c r="N46" s="77">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>34</v>
       </c>
@@ -4211,8 +4930,23 @@
       <c r="I47" s="77">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="77">
+        <v>0.4</v>
+      </c>
+      <c r="K47" s="77">
+        <v>0.4</v>
+      </c>
+      <c r="L47" s="77">
+        <v>0.4</v>
+      </c>
+      <c r="M47" s="77">
+        <v>0.4</v>
+      </c>
+      <c r="N47" s="77">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>35</v>
       </c>
@@ -4240,8 +4974,23 @@
       <c r="I48" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="77">
+        <v>0</v>
+      </c>
+      <c r="K48" s="77">
+        <v>0</v>
+      </c>
+      <c r="L48" s="77">
+        <v>0</v>
+      </c>
+      <c r="M48" s="77">
+        <v>0</v>
+      </c>
+      <c r="N48" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>433</v>
       </c>
@@ -4269,8 +5018,23 @@
       <c r="I49" s="77">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="77">
+        <v>1200</v>
+      </c>
+      <c r="K49" s="77">
+        <v>1200</v>
+      </c>
+      <c r="L49" s="77">
+        <v>1200</v>
+      </c>
+      <c r="M49" s="77">
+        <v>1200</v>
+      </c>
+      <c r="N49" s="77">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>434</v>
       </c>
@@ -4298,8 +5062,23 @@
       <c r="I50" s="77">
         <v>1200</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="77">
+        <v>1200</v>
+      </c>
+      <c r="K50" s="77">
+        <v>1200</v>
+      </c>
+      <c r="L50" s="77">
+        <v>1200</v>
+      </c>
+      <c r="M50" s="77">
+        <v>1200</v>
+      </c>
+      <c r="N50" s="77">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>456</v>
       </c>
@@ -4327,8 +5106,23 @@
       <c r="I51" s="35" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="K51" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="L51" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="M51" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="N51" s="35" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>15</v>
       </c>
@@ -4356,8 +5150,23 @@
       <c r="I52" s="77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="K52" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="L52" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="M52" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="N52" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>16</v>
       </c>
@@ -4385,8 +5194,23 @@
       <c r="I53" s="77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="K53" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="L53" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="M53" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="N53" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>17</v>
       </c>
@@ -4414,8 +5238,23 @@
       <c r="I54" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="77">
+        <v>0</v>
+      </c>
+      <c r="K54" s="77">
+        <v>0</v>
+      </c>
+      <c r="L54" s="77">
+        <v>0</v>
+      </c>
+      <c r="M54" s="77">
+        <v>0</v>
+      </c>
+      <c r="N54" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>18</v>
       </c>
@@ -4443,8 +5282,23 @@
       <c r="I55" s="77">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="K55" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="L55" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="M55" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="N55" s="77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>19</v>
       </c>
@@ -4472,8 +5326,23 @@
       <c r="I56" s="77">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="77">
+        <v>0.05</v>
+      </c>
+      <c r="K56" s="77">
+        <v>0.05</v>
+      </c>
+      <c r="L56" s="77">
+        <v>0.05</v>
+      </c>
+      <c r="M56" s="77">
+        <v>0.05</v>
+      </c>
+      <c r="N56" s="77">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>36</v>
       </c>
@@ -4501,8 +5370,23 @@
       <c r="I57" s="80">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="80">
+        <v>1E-3</v>
+      </c>
+      <c r="K57" s="80">
+        <v>1E-3</v>
+      </c>
+      <c r="L57" s="80">
+        <v>1E-3</v>
+      </c>
+      <c r="M57" s="80">
+        <v>1E-3</v>
+      </c>
+      <c r="N57" s="80">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>379</v>
       </c>
@@ -4530,8 +5414,23 @@
       <c r="I58" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="77">
+        <v>0</v>
+      </c>
+      <c r="K58" s="77">
+        <v>0</v>
+      </c>
+      <c r="L58" s="77">
+        <v>0</v>
+      </c>
+      <c r="M58" s="77">
+        <v>0</v>
+      </c>
+      <c r="N58" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>37</v>
       </c>
@@ -4559,8 +5458,23 @@
       <c r="I59" s="77">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="77">
+        <v>1E-4</v>
+      </c>
+      <c r="K59" s="77">
+        <v>1E-4</v>
+      </c>
+      <c r="L59" s="77">
+        <v>1E-4</v>
+      </c>
+      <c r="M59" s="77">
+        <v>1E-4</v>
+      </c>
+      <c r="N59" s="77">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>38</v>
       </c>
@@ -4588,8 +5502,23 @@
       <c r="I60" s="77">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="77">
+        <v>1E-4</v>
+      </c>
+      <c r="K60" s="77">
+        <v>1E-4</v>
+      </c>
+      <c r="L60" s="77">
+        <v>1E-4</v>
+      </c>
+      <c r="M60" s="77">
+        <v>1E-4</v>
+      </c>
+      <c r="N60" s="77">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>39</v>
       </c>
@@ -4617,8 +5546,23 @@
       <c r="I61" s="77">
         <v>6.9999999999999999E-4</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="77">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="K61" s="77">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="L61" s="77">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="M61" s="77">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="N61" s="77">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
         <v>40</v>
       </c>
@@ -4646,8 +5590,23 @@
       <c r="I62" s="77">
         <v>1.22E-4</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="77">
+        <v>1.22E-4</v>
+      </c>
+      <c r="K62" s="77">
+        <v>1.22E-4</v>
+      </c>
+      <c r="L62" s="77">
+        <v>1.22E-4</v>
+      </c>
+      <c r="M62" s="77">
+        <v>1.22E-4</v>
+      </c>
+      <c r="N62" s="77">
+        <v>1.22E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
         <v>206</v>
       </c>
@@ -4675,8 +5634,23 @@
       <c r="I63" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="77">
+        <v>1</v>
+      </c>
+      <c r="K63" s="77">
+        <v>1</v>
+      </c>
+      <c r="L63" s="77">
+        <v>1</v>
+      </c>
+      <c r="M63" s="77">
+        <v>1</v>
+      </c>
+      <c r="N63" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
         <v>41</v>
       </c>
@@ -4704,8 +5678,23 @@
       <c r="I64" s="77">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="77">
+        <v>0.95</v>
+      </c>
+      <c r="K64" s="77">
+        <v>0.95</v>
+      </c>
+      <c r="L64" s="77">
+        <v>0.95</v>
+      </c>
+      <c r="M64" s="77">
+        <v>0.95</v>
+      </c>
+      <c r="N64" s="77">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
         <v>405</v>
       </c>
@@ -4733,8 +5722,23 @@
       <c r="I65" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K65" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="L65" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="M65" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="N65" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
         <v>90</v>
       </c>
@@ -4762,8 +5766,23 @@
       <c r="I66" s="77">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="77">
+        <v>5</v>
+      </c>
+      <c r="K66" s="77">
+        <v>5</v>
+      </c>
+      <c r="L66" s="77">
+        <v>5</v>
+      </c>
+      <c r="M66" s="77">
+        <v>5</v>
+      </c>
+      <c r="N66" s="77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>407</v>
       </c>
@@ -4791,8 +5810,23 @@
       <c r="I67" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K67" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="L67" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="M67" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="N67" s="77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
         <v>42</v>
       </c>
@@ -4820,8 +5854,23 @@
       <c r="I68" s="77">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="77">
+        <v>50</v>
+      </c>
+      <c r="K68" s="77">
+        <v>50</v>
+      </c>
+      <c r="L68" s="77">
+        <v>50</v>
+      </c>
+      <c r="M68" s="77">
+        <v>50</v>
+      </c>
+      <c r="N68" s="77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
         <v>207</v>
       </c>
@@ -4849,8 +5898,23 @@
       <c r="I69" s="78">
         <v>1453890.8941884842</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="78">
+        <v>1453890.8941884842</v>
+      </c>
+      <c r="K69" s="78">
+        <v>1453890.8941884842</v>
+      </c>
+      <c r="L69" s="78">
+        <v>1453890.8941884842</v>
+      </c>
+      <c r="M69" s="78">
+        <v>1453890.8941884842</v>
+      </c>
+      <c r="N69" s="78">
+        <v>1453890.8941884842</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
         <v>43</v>
       </c>
@@ -4878,8 +5942,23 @@
       <c r="I70" s="78">
         <v>1.3888888888888888E-5</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="78">
+        <v>1.3888888888888888E-5</v>
+      </c>
+      <c r="K70" s="78">
+        <v>1.3888888888888888E-5</v>
+      </c>
+      <c r="L70" s="78">
+        <v>1.3888888888888888E-5</v>
+      </c>
+      <c r="M70" s="78">
+        <v>1.3888888888888888E-5</v>
+      </c>
+      <c r="N70" s="78">
+        <v>1.3888888888888888E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
         <v>44</v>
       </c>
@@ -4907,8 +5986,23 @@
       <c r="I71" s="79">
         <v>6.5011574074074071E-4</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="79">
+        <v>6.5011574074074071E-4</v>
+      </c>
+      <c r="K71" s="79">
+        <v>6.5011574074074071E-4</v>
+      </c>
+      <c r="L71" s="79">
+        <v>6.5011574074074071E-4</v>
+      </c>
+      <c r="M71" s="79">
+        <v>6.5011574074074071E-4</v>
+      </c>
+      <c r="N71" s="79">
+        <v>6.5011574074074071E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>45</v>
       </c>
@@ -4936,8 +6030,23 @@
       <c r="I72" s="85">
         <v>4.7400000000000003E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="85">
+        <v>4.7400000000000003E-3</v>
+      </c>
+      <c r="K72" s="85">
+        <v>4.7400000000000003E-3</v>
+      </c>
+      <c r="L72" s="85">
+        <v>4.7400000000000003E-3</v>
+      </c>
+      <c r="M72" s="85">
+        <v>4.7400000000000003E-3</v>
+      </c>
+      <c r="N72" s="85">
+        <v>4.7400000000000003E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
         <v>46</v>
       </c>
@@ -4965,8 +6074,23 @@
       <c r="I73" s="79">
         <v>282528</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="79">
+        <v>282528</v>
+      </c>
+      <c r="K73" s="79">
+        <v>282528</v>
+      </c>
+      <c r="L73" s="79">
+        <v>282528</v>
+      </c>
+      <c r="M73" s="79">
+        <v>282528</v>
+      </c>
+      <c r="N73" s="79">
+        <v>282528</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
         <v>47</v>
       </c>
@@ -4994,8 +6118,23 @@
       <c r="I74" s="85">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="85">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K74" s="85">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L74" s="85">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M74" s="85">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N74" s="85">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
         <v>48</v>
       </c>
@@ -5023,8 +6162,23 @@
       <c r="I75" s="87">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="87">
+        <v>0.16</v>
+      </c>
+      <c r="K75" s="87">
+        <v>0.16</v>
+      </c>
+      <c r="L75" s="87">
+        <v>0.16</v>
+      </c>
+      <c r="M75" s="87">
+        <v>0.16</v>
+      </c>
+      <c r="N75" s="87">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
         <v>49</v>
       </c>
@@ -5052,8 +6206,23 @@
       <c r="I76" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="77">
+        <v>0</v>
+      </c>
+      <c r="K76" s="77">
+        <v>0</v>
+      </c>
+      <c r="L76" s="77">
+        <v>0</v>
+      </c>
+      <c r="M76" s="77">
+        <v>0</v>
+      </c>
+      <c r="N76" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
         <v>50</v>
       </c>
@@ -5081,8 +6250,23 @@
       <c r="I77" s="78">
         <v>745476480000</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="78">
+        <v>745476480000</v>
+      </c>
+      <c r="K77" s="78">
+        <v>745476480000</v>
+      </c>
+      <c r="L77" s="78">
+        <v>745476480000</v>
+      </c>
+      <c r="M77" s="78">
+        <v>745476480000</v>
+      </c>
+      <c r="N77" s="78">
+        <v>745476480000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
         <v>204</v>
       </c>
@@ -5110,8 +6294,23 @@
       <c r="I78" s="77">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="77">
+        <v>100</v>
+      </c>
+      <c r="K78" s="77">
+        <v>100</v>
+      </c>
+      <c r="L78" s="77">
+        <v>100</v>
+      </c>
+      <c r="M78" s="77">
+        <v>100</v>
+      </c>
+      <c r="N78" s="77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
         <v>413</v>
       </c>
@@ -5139,8 +6338,23 @@
       <c r="I79" s="77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="K79" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="L79" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="M79" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="N79" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
         <v>399</v>
       </c>
@@ -5168,8 +6382,23 @@
       <c r="I80" s="85">
         <v>21600</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="85">
+        <v>21600</v>
+      </c>
+      <c r="K80" s="85">
+        <v>21600</v>
+      </c>
+      <c r="L80" s="85">
+        <v>21600</v>
+      </c>
+      <c r="M80" s="85">
+        <v>21600</v>
+      </c>
+      <c r="N80" s="85">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
         <v>409</v>
       </c>
@@ -5197,8 +6426,23 @@
       <c r="I81" s="77">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="K81" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="L81" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="M81" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="N81" s="77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
         <v>400</v>
       </c>
@@ -5226,8 +6470,23 @@
       <c r="I82" s="85">
         <v>60479.999999999993</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="85">
+        <v>60479.999999999993</v>
+      </c>
+      <c r="K82" s="85">
+        <v>60479.999999999993</v>
+      </c>
+      <c r="L82" s="85">
+        <v>60479.999999999993</v>
+      </c>
+      <c r="M82" s="85">
+        <v>60479.999999999993</v>
+      </c>
+      <c r="N82" s="85">
+        <v>60479.999999999993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
         <v>410</v>
       </c>
@@ -5255,8 +6514,23 @@
       <c r="I83" s="77">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="77">
+        <v>0.85</v>
+      </c>
+      <c r="K83" s="77">
+        <v>0.85</v>
+      </c>
+      <c r="L83" s="77">
+        <v>0.85</v>
+      </c>
+      <c r="M83" s="77">
+        <v>0.85</v>
+      </c>
+      <c r="N83" s="77">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
         <v>401</v>
       </c>
@@ -5284,8 +6558,23 @@
       <c r="I84" s="77">
         <v>518400</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="77">
+        <v>518400</v>
+      </c>
+      <c r="K84" s="77">
+        <v>518400</v>
+      </c>
+      <c r="L84" s="77">
+        <v>518400</v>
+      </c>
+      <c r="M84" s="77">
+        <v>518400</v>
+      </c>
+      <c r="N84" s="77">
+        <v>518400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
         <v>411</v>
       </c>
@@ -5313,8 +6602,23 @@
       <c r="I85" s="77">
         <v>5184000</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="77">
+        <v>5184000</v>
+      </c>
+      <c r="K85" s="77">
+        <v>5184000</v>
+      </c>
+      <c r="L85" s="77">
+        <v>5184000</v>
+      </c>
+      <c r="M85" s="77">
+        <v>5184000</v>
+      </c>
+      <c r="N85" s="77">
+        <v>5184000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="s">
         <v>51</v>
       </c>
@@ -5342,8 +6646,23 @@
       <c r="I86" s="86">
         <v>50000</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="86">
+        <v>50000</v>
+      </c>
+      <c r="K86" s="86">
+        <v>50000</v>
+      </c>
+      <c r="L86" s="86">
+        <v>50000</v>
+      </c>
+      <c r="M86" s="86">
+        <v>50000</v>
+      </c>
+      <c r="N86" s="86">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="17" t="s">
         <v>52</v>
       </c>
@@ -5371,8 +6690,23 @@
       <c r="I87" s="77">
         <v>140000</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="77">
+        <v>140000</v>
+      </c>
+      <c r="K87" s="77">
+        <v>140000</v>
+      </c>
+      <c r="L87" s="77">
+        <v>140000</v>
+      </c>
+      <c r="M87" s="77">
+        <v>140000</v>
+      </c>
+      <c r="N87" s="77">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
         <v>53</v>
       </c>
@@ -5400,8 +6734,23 @@
       <c r="I88" s="78">
         <v>3.6636136999999999E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="78">
+        <v>3.6636136999999999E-2</v>
+      </c>
+      <c r="K88" s="78">
+        <v>3.6636136999999999E-2</v>
+      </c>
+      <c r="L88" s="78">
+        <v>3.6636136999999999E-2</v>
+      </c>
+      <c r="M88" s="78">
+        <v>3.6636136999999999E-2</v>
+      </c>
+      <c r="N88" s="78">
+        <v>3.6636136999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="17" t="s">
         <v>54</v>
       </c>
@@ -5429,8 +6778,23 @@
       <c r="I89" s="77">
         <v>4.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="77">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="K89" s="77">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="L89" s="77">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M89" s="77">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="N89" s="77">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="17" t="s">
         <v>55</v>
       </c>
@@ -5458,8 +6822,23 @@
       <c r="I90" s="77">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="77">
+        <v>0.06</v>
+      </c>
+      <c r="K90" s="77">
+        <v>0.06</v>
+      </c>
+      <c r="L90" s="77">
+        <v>0.06</v>
+      </c>
+      <c r="M90" s="77">
+        <v>0.06</v>
+      </c>
+      <c r="N90" s="77">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
         <v>213</v>
       </c>
@@ -5487,8 +6866,23 @@
       <c r="I91" s="77">
         <v>6.0000000000000002E-6</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="77">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="K91" s="77">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="L91" s="77">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="M91" s="77">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="N91" s="77">
+        <v>6.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="19" t="s">
         <v>214</v>
       </c>
@@ -5516,8 +6910,23 @@
       <c r="I92" s="77">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="77">
+        <v>1E-3</v>
+      </c>
+      <c r="K92" s="77">
+        <v>1E-3</v>
+      </c>
+      <c r="L92" s="77">
+        <v>1E-3</v>
+      </c>
+      <c r="M92" s="77">
+        <v>1E-3</v>
+      </c>
+      <c r="N92" s="77">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
         <v>215</v>
       </c>
@@ -5545,8 +6954,23 @@
       <c r="I93" s="77">
         <v>374999999.99999994</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="77">
+        <v>374999999.99999994</v>
+      </c>
+      <c r="K93" s="77">
+        <v>374999999.99999994</v>
+      </c>
+      <c r="L93" s="77">
+        <v>374999999.99999994</v>
+      </c>
+      <c r="M93" s="77">
+        <v>374999999.99999994</v>
+      </c>
+      <c r="N93" s="77">
+        <v>374999999.99999994</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
         <v>216</v>
       </c>
@@ -5574,8 +6998,23 @@
       <c r="I94" s="78">
         <v>3.7037037037037038E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="78">
+        <v>3.7037037037037038E-3</v>
+      </c>
+      <c r="K94" s="78">
+        <v>3.7037037037037038E-3</v>
+      </c>
+      <c r="L94" s="78">
+        <v>3.7037037037037038E-3</v>
+      </c>
+      <c r="M94" s="78">
+        <v>3.7037037037037038E-3</v>
+      </c>
+      <c r="N94" s="78">
+        <v>3.7037037037037038E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
         <v>217</v>
       </c>
@@ -5603,8 +7042,23 @@
       <c r="I95" s="77">
         <v>165600</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="77">
+        <v>165600</v>
+      </c>
+      <c r="K95" s="77">
+        <v>165600</v>
+      </c>
+      <c r="L95" s="77">
+        <v>165600</v>
+      </c>
+      <c r="M95" s="77">
+        <v>165600</v>
+      </c>
+      <c r="N95" s="77">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>60</v>
       </c>
@@ -5632,8 +7086,23 @@
       <c r="I96" s="77">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="77">
+        <v>20</v>
+      </c>
+      <c r="K96" s="77">
+        <v>20</v>
+      </c>
+      <c r="L96" s="77">
+        <v>20</v>
+      </c>
+      <c r="M96" s="77">
+        <v>20</v>
+      </c>
+      <c r="N96" s="77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>208</v>
       </c>
@@ -5661,8 +7130,23 @@
       <c r="I97" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="77">
+        <v>1</v>
+      </c>
+      <c r="K97" s="77">
+        <v>1</v>
+      </c>
+      <c r="L97" s="77">
+        <v>1</v>
+      </c>
+      <c r="M97" s="77">
+        <v>1</v>
+      </c>
+      <c r="N97" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>59</v>
       </c>
@@ -5690,8 +7174,23 @@
       <c r="I98" s="77">
         <v>21</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="77">
+        <v>21</v>
+      </c>
+      <c r="K98" s="77">
+        <v>21</v>
+      </c>
+      <c r="L98" s="77">
+        <v>21</v>
+      </c>
+      <c r="M98" s="77">
+        <v>21</v>
+      </c>
+      <c r="N98" s="77">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="23" t="s">
         <v>65</v>
       </c>
@@ -5719,8 +7218,23 @@
       <c r="I99" s="77">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="77">
+        <v>0.64</v>
+      </c>
+      <c r="K99" s="77">
+        <v>0.64</v>
+      </c>
+      <c r="L99" s="77">
+        <v>0.64</v>
+      </c>
+      <c r="M99" s="77">
+        <v>0.64</v>
+      </c>
+      <c r="N99" s="77">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="23" t="s">
         <v>366</v>
       </c>
@@ -5748,8 +7262,23 @@
       <c r="I100" s="77">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="77">
+        <v>8</v>
+      </c>
+      <c r="K100" s="77">
+        <v>8</v>
+      </c>
+      <c r="L100" s="77">
+        <v>8</v>
+      </c>
+      <c r="M100" s="77">
+        <v>8</v>
+      </c>
+      <c r="N100" s="77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="23" t="s">
         <v>367</v>
       </c>
@@ -5777,8 +7306,23 @@
       <c r="I101" s="77">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="77">
+        <v>10</v>
+      </c>
+      <c r="K101" s="77">
+        <v>10</v>
+      </c>
+      <c r="L101" s="77">
+        <v>10</v>
+      </c>
+      <c r="M101" s="77">
+        <v>10</v>
+      </c>
+      <c r="N101" s="77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="23" t="s">
         <v>368</v>
       </c>
@@ -5806,8 +7350,23 @@
       <c r="I102" s="77">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="77">
+        <v>8</v>
+      </c>
+      <c r="K102" s="77">
+        <v>8</v>
+      </c>
+      <c r="L102" s="77">
+        <v>8</v>
+      </c>
+      <c r="M102" s="77">
+        <v>8</v>
+      </c>
+      <c r="N102" s="77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="23" t="s">
         <v>500</v>
       </c>
@@ -5835,8 +7394,23 @@
       <c r="I103" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="77">
+        <v>1</v>
+      </c>
+      <c r="K103" s="77">
+        <v>1</v>
+      </c>
+      <c r="L103" s="77">
+        <v>1</v>
+      </c>
+      <c r="M103" s="77">
+        <v>1</v>
+      </c>
+      <c r="N103" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="23" t="s">
         <v>384</v>
       </c>
@@ -5864,8 +7438,23 @@
       <c r="I104" s="77">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="K104" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="L104" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="M104" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="N104" s="77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="23" t="s">
         <v>501</v>
       </c>
@@ -5896,8 +7485,28 @@
         <f>I103</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="58">
+        <f>J103</f>
+        <v>1</v>
+      </c>
+      <c r="K105" s="58">
+        <f>K103</f>
+        <v>1</v>
+      </c>
+      <c r="L105" s="58">
+        <f>L103</f>
+        <v>1</v>
+      </c>
+      <c r="M105" s="58">
+        <f>M103</f>
+        <v>1</v>
+      </c>
+      <c r="N105" s="58">
+        <f>N103</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="23" t="s">
         <v>502</v>
       </c>
@@ -5928,8 +7537,28 @@
         <f>150*I103</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="58">
+        <f>150*J103</f>
+        <v>150</v>
+      </c>
+      <c r="K106" s="58">
+        <f>150*K103</f>
+        <v>150</v>
+      </c>
+      <c r="L106" s="58">
+        <f>150*L103</f>
+        <v>150</v>
+      </c>
+      <c r="M106" s="58">
+        <f>150*M103</f>
+        <v>150</v>
+      </c>
+      <c r="N106" s="58">
+        <f>150*N103</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="23" t="s">
         <v>503</v>
       </c>
@@ -5960,8 +7589,28 @@
         <f>I98</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="58">
+        <f>J98</f>
+        <v>21</v>
+      </c>
+      <c r="K107" s="58">
+        <f>K98</f>
+        <v>21</v>
+      </c>
+      <c r="L107" s="58">
+        <f>L98</f>
+        <v>21</v>
+      </c>
+      <c r="M107" s="58">
+        <f>M98</f>
+        <v>21</v>
+      </c>
+      <c r="N107" s="58">
+        <f>N98</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="23" t="s">
         <v>504</v>
       </c>
@@ -5992,8 +7641,28 @@
         <f>70*I98</f>
         <v>1470</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="58">
+        <f>70*J98</f>
+        <v>1470</v>
+      </c>
+      <c r="K108" s="58">
+        <f>70*K98</f>
+        <v>1470</v>
+      </c>
+      <c r="L108" s="58">
+        <f>70*L98</f>
+        <v>1470</v>
+      </c>
+      <c r="M108" s="58">
+        <f>70*M98</f>
+        <v>1470</v>
+      </c>
+      <c r="N108" s="58">
+        <f>70*N98</f>
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="23" t="s">
         <v>386</v>
       </c>
@@ -6021,8 +7690,23 @@
       <c r="I109" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="77">
+        <v>0</v>
+      </c>
+      <c r="K109" s="77">
+        <v>0</v>
+      </c>
+      <c r="L109" s="77">
+        <v>0</v>
+      </c>
+      <c r="M109" s="77">
+        <v>0</v>
+      </c>
+      <c r="N109" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="s">
         <v>388</v>
       </c>
@@ -6050,8 +7734,23 @@
       <c r="I110" s="82">
         <v>1589759.9999999998</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="82">
+        <v>1589759.9999999998</v>
+      </c>
+      <c r="K110" s="82">
+        <v>1589759.9999999998</v>
+      </c>
+      <c r="L110" s="82">
+        <v>1589759.9999999998</v>
+      </c>
+      <c r="M110" s="82">
+        <v>1589759.9999999998</v>
+      </c>
+      <c r="N110" s="82">
+        <v>1589759.9999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="23" t="s">
         <v>390</v>
       </c>
@@ -6079,8 +7778,23 @@
       <c r="I111" s="82">
         <v>6171428.5714285718</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="82">
+        <v>6171428.5714285718</v>
+      </c>
+      <c r="K111" s="82">
+        <v>6171428.5714285718</v>
+      </c>
+      <c r="L111" s="82">
+        <v>6171428.5714285718</v>
+      </c>
+      <c r="M111" s="82">
+        <v>6171428.5714285718</v>
+      </c>
+      <c r="N111" s="82">
+        <v>6171428.5714285718</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="23" t="s">
         <v>392</v>
       </c>
@@ -6108,8 +7822,23 @@
       <c r="I112" s="82">
         <v>6171428.5714285718</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="82">
+        <v>6171428.5714285718</v>
+      </c>
+      <c r="K112" s="82">
+        <v>6171428.5714285718</v>
+      </c>
+      <c r="L112" s="82">
+        <v>6171428.5714285718</v>
+      </c>
+      <c r="M112" s="82">
+        <v>6171428.5714285718</v>
+      </c>
+      <c r="N112" s="82">
+        <v>6171428.5714285718</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="23" t="s">
         <v>420</v>
       </c>
@@ -6137,8 +7866,23 @@
       <c r="I113" s="82">
         <v>100</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J113" s="82">
+        <v>100</v>
+      </c>
+      <c r="K113" s="82">
+        <v>100</v>
+      </c>
+      <c r="L113" s="82">
+        <v>100</v>
+      </c>
+      <c r="M113" s="82">
+        <v>100</v>
+      </c>
+      <c r="N113" s="82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="23" t="s">
         <v>422</v>
       </c>
@@ -6169,8 +7913,28 @@
         <f>0.1 * 3.25 * (60*60*24)</f>
         <v>28080</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="67">
+        <f>0.1 * 3.25 * (60*60*24)</f>
+        <v>28080</v>
+      </c>
+      <c r="K114" s="67">
+        <f>0.1 * 3.25 * (60*60*24)</f>
+        <v>28080</v>
+      </c>
+      <c r="L114" s="67">
+        <f>0.1 * 3.25 * (60*60*24)</f>
+        <v>28080</v>
+      </c>
+      <c r="M114" s="67">
+        <f>0.1 * 3.25 * (60*60*24)</f>
+        <v>28080</v>
+      </c>
+      <c r="N114" s="67">
+        <f>0.1 * 3.25 * (60*60*24)</f>
+        <v>28080</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="23" t="s">
         <v>424</v>
       </c>
@@ -6201,8 +7965,28 @@
         <f>1.11 / 10</f>
         <v>0.11100000000000002</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="67">
+        <f>1.11 / 10</f>
+        <v>0.11100000000000002</v>
+      </c>
+      <c r="K115" s="67">
+        <f>1.11 / 10</f>
+        <v>0.11100000000000002</v>
+      </c>
+      <c r="L115" s="67">
+        <f>1.11 / 10</f>
+        <v>0.11100000000000002</v>
+      </c>
+      <c r="M115" s="67">
+        <f>1.11 / 10</f>
+        <v>0.11100000000000002</v>
+      </c>
+      <c r="N115" s="67">
+        <f>1.11 / 10</f>
+        <v>0.11100000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="23" t="s">
         <v>497</v>
       </c>
@@ -6230,8 +8014,23 @@
       <c r="I116" s="82">
         <v>100</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J116" s="82">
+        <v>100</v>
+      </c>
+      <c r="K116" s="82">
+        <v>100</v>
+      </c>
+      <c r="L116" s="82">
+        <v>100</v>
+      </c>
+      <c r="M116" s="82">
+        <v>100</v>
+      </c>
+      <c r="N116" s="82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="23" t="s">
         <v>498</v>
       </c>
@@ -6262,8 +8061,28 @@
         <f>5.32 * (60*60*24)</f>
         <v>459648</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="67">
+        <f>5.32 * (60*60*24)</f>
+        <v>459648</v>
+      </c>
+      <c r="K117" s="67">
+        <f>5.32 * (60*60*24)</f>
+        <v>459648</v>
+      </c>
+      <c r="L117" s="67">
+        <f>5.32 * (60*60*24)</f>
+        <v>459648</v>
+      </c>
+      <c r="M117" s="67">
+        <f>5.32 * (60*60*24)</f>
+        <v>459648</v>
+      </c>
+      <c r="N117" s="67">
+        <f>5.32 * (60*60*24)</f>
+        <v>459648</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="23" t="s">
         <v>499</v>
       </c>
@@ -6294,8 +8113,28 @@
         <f>1.11/8</f>
         <v>0.13875000000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="67">
+        <f>1.11/8</f>
+        <v>0.13875000000000001</v>
+      </c>
+      <c r="K118" s="67">
+        <f>1.11/8</f>
+        <v>0.13875000000000001</v>
+      </c>
+      <c r="L118" s="67">
+        <f>1.11/8</f>
+        <v>0.13875000000000001</v>
+      </c>
+      <c r="M118" s="67">
+        <f>1.11/8</f>
+        <v>0.13875000000000001</v>
+      </c>
+      <c r="N118" s="67">
+        <f>1.11/8</f>
+        <v>0.13875000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="23" t="s">
         <v>394</v>
       </c>
@@ -6323,8 +8162,23 @@
       <c r="I119" s="82">
         <v>21600</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="82">
+        <v>21600</v>
+      </c>
+      <c r="K119" s="82">
+        <v>21600</v>
+      </c>
+      <c r="L119" s="82">
+        <v>21600</v>
+      </c>
+      <c r="M119" s="82">
+        <v>21600</v>
+      </c>
+      <c r="N119" s="82">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="23" t="s">
         <v>396</v>
       </c>
@@ -6352,8 +8206,23 @@
       <c r="I120" s="88">
         <v>43200</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="88">
+        <v>43200</v>
+      </c>
+      <c r="K120" s="88">
+        <v>43200</v>
+      </c>
+      <c r="L120" s="88">
+        <v>43200</v>
+      </c>
+      <c r="M120" s="88">
+        <v>43200</v>
+      </c>
+      <c r="N120" s="88">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
         <v>61</v>
       </c>
@@ -6381,8 +8250,23 @@
       <c r="I121" s="77">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="K121" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="L121" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="M121" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="N121" s="77">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>62</v>
       </c>
@@ -6412,8 +8296,28 @@
         <f>1250*0.000001/6</f>
         <v>2.0833333333333335E-4</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="78">
+        <f>1250*0.000001/6</f>
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="K122" s="78">
+        <f>1250*0.000001/6</f>
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="L122" s="78">
+        <f>1250*0.000001/6</f>
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="M122" s="78">
+        <f>1250*0.000001/6</f>
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="N122" s="78">
+        <f>1250*0.000001/6</f>
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="13" t="s">
         <v>63</v>
       </c>
@@ -6441,8 +8345,23 @@
       <c r="I123" s="77">
         <v>5.7899999999999998E-7</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="77">
+        <v>5.7899999999999998E-7</v>
+      </c>
+      <c r="K123" s="77">
+        <v>5.7899999999999998E-7</v>
+      </c>
+      <c r="L123" s="77">
+        <v>5.7899999999999998E-7</v>
+      </c>
+      <c r="M123" s="77">
+        <v>5.7899999999999998E-7</v>
+      </c>
+      <c r="N123" s="77">
+        <v>5.7899999999999998E-7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
         <v>64</v>
       </c>
@@ -6470,8 +8389,23 @@
       <c r="I124" s="78">
         <v>2.0833333333333335E-4</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="78">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="K124" s="78">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="L124" s="78">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="M124" s="78">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="N124" s="78">
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
         <v>449</v>
       </c>
@@ -6499,8 +8433,23 @@
       <c r="I125" s="78">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="78">
+        <v>0</v>
+      </c>
+      <c r="K125" s="78">
+        <v>0</v>
+      </c>
+      <c r="L125" s="78">
+        <v>0</v>
+      </c>
+      <c r="M125" s="78">
+        <v>0</v>
+      </c>
+      <c r="N125" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
         <v>451</v>
       </c>
@@ -6528,8 +8477,23 @@
       <c r="I126" s="78">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="78">
+        <v>0</v>
+      </c>
+      <c r="K126" s="78">
+        <v>0</v>
+      </c>
+      <c r="L126" s="78">
+        <v>0</v>
+      </c>
+      <c r="M126" s="78">
+        <v>0</v>
+      </c>
+      <c r="N126" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="68" t="s">
         <v>440</v>
       </c>
@@ -6555,8 +8519,23 @@
       <c r="I127" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="89">
+        <v>0</v>
+      </c>
+      <c r="K127" s="89">
+        <v>0</v>
+      </c>
+      <c r="L127" s="89">
+        <v>0</v>
+      </c>
+      <c r="M127" s="89">
+        <v>0</v>
+      </c>
+      <c r="N127" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="68" t="s">
         <v>67</v>
       </c>
@@ -6582,8 +8561,23 @@
       <c r="I128" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="89">
+        <v>0</v>
+      </c>
+      <c r="K128" s="89">
+        <v>0</v>
+      </c>
+      <c r="L128" s="89">
+        <v>0</v>
+      </c>
+      <c r="M128" s="89">
+        <v>0</v>
+      </c>
+      <c r="N128" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="68" t="s">
         <v>445</v>
       </c>
@@ -6611,8 +8605,23 @@
       <c r="I129" s="89" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="K129" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="L129" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="M129" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="N129" s="89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="21" t="s">
         <v>66</v>
       </c>
@@ -6640,8 +8649,23 @@
       <c r="I130" s="83">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="83">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K130" s="83">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L130" s="83">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M130" s="83">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N130" s="83">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="21" t="s">
         <v>437</v>
       </c>
@@ -6669,8 +8693,23 @@
       <c r="I131" s="83">
         <v>4.9999999999999999E-13</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="83">
+        <v>4.9999999999999999E-13</v>
+      </c>
+      <c r="K131" s="83">
+        <v>4.9999999999999999E-13</v>
+      </c>
+      <c r="L131" s="83">
+        <v>4.9999999999999999E-13</v>
+      </c>
+      <c r="M131" s="83">
+        <v>4.9999999999999999E-13</v>
+      </c>
+      <c r="N131" s="83">
+        <v>4.9999999999999999E-13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="21" t="s">
         <v>228</v>
       </c>
@@ -6698,8 +8737,23 @@
       <c r="I132" s="77">
         <v>10</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="77">
+        <v>10</v>
+      </c>
+      <c r="K132" s="77">
+        <v>10</v>
+      </c>
+      <c r="L132" s="77">
+        <v>10</v>
+      </c>
+      <c r="M132" s="77">
+        <v>10</v>
+      </c>
+      <c r="N132" s="77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="21" t="s">
         <v>229</v>
       </c>
@@ -6727,8 +8781,23 @@
       <c r="I133" s="77">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="77">
+        <v>-0.04</v>
+      </c>
+      <c r="K133" s="77">
+        <v>-0.04</v>
+      </c>
+      <c r="L133" s="77">
+        <v>-0.04</v>
+      </c>
+      <c r="M133" s="77">
+        <v>-0.04</v>
+      </c>
+      <c r="N133" s="77">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="21" t="s">
         <v>230</v>
       </c>
@@ -6756,8 +8825,23 @@
       <c r="I134" s="77">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="77">
+        <v>2.9</v>
+      </c>
+      <c r="K134" s="77">
+        <v>2.9</v>
+      </c>
+      <c r="L134" s="77">
+        <v>2.9</v>
+      </c>
+      <c r="M134" s="77">
+        <v>2.9</v>
+      </c>
+      <c r="N134" s="77">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="21" t="s">
         <v>231</v>
       </c>
@@ -6785,8 +8869,23 @@
       <c r="I135" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="77">
+        <v>1</v>
+      </c>
+      <c r="K135" s="77">
+        <v>1</v>
+      </c>
+      <c r="L135" s="77">
+        <v>1</v>
+      </c>
+      <c r="M135" s="77">
+        <v>1</v>
+      </c>
+      <c r="N135" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="21" t="s">
         <v>68</v>
       </c>
@@ -6814,8 +8913,23 @@
       <c r="I136" s="80">
         <v>1.9999999999999999E-7</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="80">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="K136" s="80">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="L136" s="80">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M136" s="80">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="N136" s="80">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="21" t="s">
         <v>232</v>
       </c>
@@ -6843,8 +8957,23 @@
       <c r="I137" s="77">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="77">
+        <v>10</v>
+      </c>
+      <c r="K137" s="77">
+        <v>10</v>
+      </c>
+      <c r="L137" s="77">
+        <v>10</v>
+      </c>
+      <c r="M137" s="77">
+        <v>10</v>
+      </c>
+      <c r="N137" s="77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="21" t="s">
         <v>233</v>
       </c>
@@ -6872,8 +9001,23 @@
       <c r="I138" s="77">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138" s="77">
+        <v>-0.04</v>
+      </c>
+      <c r="K138" s="77">
+        <v>-0.04</v>
+      </c>
+      <c r="L138" s="77">
+        <v>-0.04</v>
+      </c>
+      <c r="M138" s="77">
+        <v>-0.04</v>
+      </c>
+      <c r="N138" s="77">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="21" t="s">
         <v>234</v>
       </c>
@@ -6901,8 +9045,23 @@
       <c r="I139" s="77">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="77">
+        <v>2.9</v>
+      </c>
+      <c r="K139" s="77">
+        <v>2.9</v>
+      </c>
+      <c r="L139" s="77">
+        <v>2.9</v>
+      </c>
+      <c r="M139" s="77">
+        <v>2.9</v>
+      </c>
+      <c r="N139" s="77">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="21" t="s">
         <v>235</v>
       </c>
@@ -6930,8 +9089,23 @@
       <c r="I140" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="77">
+        <v>1</v>
+      </c>
+      <c r="K140" s="77">
+        <v>1</v>
+      </c>
+      <c r="L140" s="77">
+        <v>1</v>
+      </c>
+      <c r="M140" s="77">
+        <v>1</v>
+      </c>
+      <c r="N140" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="21" t="s">
         <v>69</v>
       </c>
@@ -6959,8 +9133,23 @@
       <c r="I141" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="77">
+        <v>0</v>
+      </c>
+      <c r="K141" s="77">
+        <v>0</v>
+      </c>
+      <c r="L141" s="77">
+        <v>0</v>
+      </c>
+      <c r="M141" s="77">
+        <v>0</v>
+      </c>
+      <c r="N141" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="72" t="s">
         <v>70</v>
       </c>
@@ -6988,8 +9177,23 @@
       <c r="I142" s="80">
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="80">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="K142" s="80">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="L142" s="80">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="M142" s="80">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="N142" s="80">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="23" t="s">
         <v>56</v>
       </c>
@@ -7017,8 +9221,23 @@
       <c r="I143" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="77">
+        <v>0</v>
+      </c>
+      <c r="K143" s="77">
+        <v>0</v>
+      </c>
+      <c r="L143" s="77">
+        <v>0</v>
+      </c>
+      <c r="M143" s="77">
+        <v>0</v>
+      </c>
+      <c r="N143" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="23" t="s">
         <v>57</v>
       </c>
@@ -7046,8 +9265,23 @@
       <c r="I144" s="77">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="77">
+        <v>2E-3</v>
+      </c>
+      <c r="K144" s="77">
+        <v>2E-3</v>
+      </c>
+      <c r="L144" s="77">
+        <v>2E-3</v>
+      </c>
+      <c r="M144" s="77">
+        <v>2E-3</v>
+      </c>
+      <c r="N144" s="77">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="23" t="s">
         <v>58</v>
       </c>
@@ -7075,8 +9309,23 @@
       <c r="I145" s="80">
         <v>3.9999999999999998E-6</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="80">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="K145" s="80">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="L145" s="80">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="M145" s="80">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="N145" s="80">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="23" t="s">
         <v>71</v>
       </c>
@@ -7104,8 +9353,23 @@
       <c r="I146" s="80">
         <v>3.7699999999999999E-10</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="80">
+        <v>3.7699999999999999E-10</v>
+      </c>
+      <c r="K146" s="80">
+        <v>3.7699999999999999E-10</v>
+      </c>
+      <c r="L146" s="80">
+        <v>3.7699999999999999E-10</v>
+      </c>
+      <c r="M146" s="80">
+        <v>3.7699999999999999E-10</v>
+      </c>
+      <c r="N146" s="80">
+        <v>3.7699999999999999E-10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="23" t="s">
         <v>236</v>
       </c>
@@ -7133,8 +9397,23 @@
       <c r="I147" s="77">
         <v>20</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="77">
+        <v>20</v>
+      </c>
+      <c r="K147" s="77">
+        <v>20</v>
+      </c>
+      <c r="L147" s="77">
+        <v>20</v>
+      </c>
+      <c r="M147" s="77">
+        <v>20</v>
+      </c>
+      <c r="N147" s="77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="23" t="s">
         <v>237</v>
       </c>
@@ -7162,8 +9441,23 @@
       <c r="I148" s="77">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="77">
+        <v>-0.06</v>
+      </c>
+      <c r="K148" s="77">
+        <v>-0.06</v>
+      </c>
+      <c r="L148" s="77">
+        <v>-0.06</v>
+      </c>
+      <c r="M148" s="77">
+        <v>-0.06</v>
+      </c>
+      <c r="N148" s="77">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="23" t="s">
         <v>238</v>
       </c>
@@ -7191,8 +9485,23 @@
       <c r="I149" s="77">
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149" s="77">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="K149" s="77">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="L149" s="77">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="M149" s="77">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="N149" s="77">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="23" t="s">
         <v>239</v>
       </c>
@@ -7220,8 +9529,23 @@
       <c r="I150" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="77">
+        <v>1</v>
+      </c>
+      <c r="K150" s="77">
+        <v>1</v>
+      </c>
+      <c r="L150" s="77">
+        <v>1</v>
+      </c>
+      <c r="M150" s="77">
+        <v>1</v>
+      </c>
+      <c r="N150" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="23" t="s">
         <v>72</v>
       </c>
@@ -7249,8 +9573,23 @@
       <c r="I151" s="80">
         <v>4.0000000000000003E-5</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="80">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="K151" s="80">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="L151" s="80">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="M151" s="80">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="N151" s="80">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
         <v>73</v>
       </c>
@@ -7278,8 +9617,23 @@
       <c r="I152" s="80">
         <v>5.8333333333333335E-9</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="80">
+        <v>5.8333333333333335E-9</v>
+      </c>
+      <c r="K152" s="80">
+        <v>5.8333333333333335E-9</v>
+      </c>
+      <c r="L152" s="80">
+        <v>5.8333333333333335E-9</v>
+      </c>
+      <c r="M152" s="80">
+        <v>5.8333333333333335E-9</v>
+      </c>
+      <c r="N152" s="80">
+        <v>5.8333333333333335E-9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="13" t="s">
         <v>240</v>
       </c>
@@ -7307,8 +9661,23 @@
       <c r="I153" s="77">
         <v>20</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="77">
+        <v>20</v>
+      </c>
+      <c r="K153" s="77">
+        <v>20</v>
+      </c>
+      <c r="L153" s="77">
+        <v>20</v>
+      </c>
+      <c r="M153" s="77">
+        <v>20</v>
+      </c>
+      <c r="N153" s="77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="13" t="s">
         <v>241</v>
       </c>
@@ -7336,8 +9705,23 @@
       <c r="I154" s="77">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154" s="77">
+        <v>-0.06</v>
+      </c>
+      <c r="K154" s="77">
+        <v>-0.06</v>
+      </c>
+      <c r="L154" s="77">
+        <v>-0.06</v>
+      </c>
+      <c r="M154" s="77">
+        <v>-0.06</v>
+      </c>
+      <c r="N154" s="77">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="13" t="s">
         <v>242</v>
       </c>
@@ -7365,8 +9749,23 @@
       <c r="I155" s="77">
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="77">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="K155" s="77">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="L155" s="77">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="M155" s="77">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="N155" s="77">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
         <v>243</v>
       </c>
@@ -7394,8 +9793,23 @@
       <c r="I156" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="77">
+        <v>1</v>
+      </c>
+      <c r="K156" s="77">
+        <v>1</v>
+      </c>
+      <c r="L156" s="77">
+        <v>1</v>
+      </c>
+      <c r="M156" s="77">
+        <v>1</v>
+      </c>
+      <c r="N156" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="13" t="s">
         <v>74</v>
       </c>
@@ -7423,8 +9837,23 @@
       <c r="I157" s="80">
         <v>4.0000000000000003E-5</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J157" s="80">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="K157" s="80">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="L157" s="80">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="M157" s="80">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="N157" s="80">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>75</v>
       </c>
@@ -7452,8 +9881,23 @@
       <c r="I158" s="83">
         <v>4.0000000000000001E-8</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158" s="83">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="K158" s="83">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="L158" s="83">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="M158" s="83">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="N158" s="83">
+        <v>4.0000000000000001E-8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>218</v>
       </c>
@@ -7481,8 +9925,23 @@
       <c r="I159" s="77">
         <v>20</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="77">
+        <v>20</v>
+      </c>
+      <c r="K159" s="77">
+        <v>20</v>
+      </c>
+      <c r="L159" s="77">
+        <v>20</v>
+      </c>
+      <c r="M159" s="77">
+        <v>20</v>
+      </c>
+      <c r="N159" s="77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>219</v>
       </c>
@@ -7510,8 +9969,23 @@
       <c r="I160" s="77">
         <v>-4.4200000000000003E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="77">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+      <c r="K160" s="77">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+      <c r="L160" s="77">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+      <c r="M160" s="77">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+      <c r="N160" s="77">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>220</v>
       </c>
@@ -7539,8 +10013,23 @@
       <c r="I161" s="77">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="77">
+        <v>1.55</v>
+      </c>
+      <c r="K161" s="77">
+        <v>1.55</v>
+      </c>
+      <c r="L161" s="77">
+        <v>1.55</v>
+      </c>
+      <c r="M161" s="77">
+        <v>1.55</v>
+      </c>
+      <c r="N161" s="77">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>221</v>
       </c>
@@ -7568,8 +10057,23 @@
       <c r="I162" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162" s="77">
+        <v>1</v>
+      </c>
+      <c r="K162" s="77">
+        <v>1</v>
+      </c>
+      <c r="L162" s="77">
+        <v>1</v>
+      </c>
+      <c r="M162" s="77">
+        <v>1</v>
+      </c>
+      <c r="N162" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>76</v>
       </c>
@@ -7597,8 +10101,23 @@
       <c r="I163" s="77">
         <v>2.7799999999999998E-4</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="77">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="K163" s="77">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="L163" s="77">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="M163" s="77">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="N163" s="77">
+        <v>2.7799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="25" t="s">
         <v>78</v>
       </c>
@@ -7626,8 +10145,23 @@
       <c r="I164" s="84">
         <v>2.4999999999999998E-12</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="84">
+        <v>2.4999999999999998E-12</v>
+      </c>
+      <c r="K164" s="84">
+        <v>2.4999999999999998E-12</v>
+      </c>
+      <c r="L164" s="84">
+        <v>2.4999999999999998E-12</v>
+      </c>
+      <c r="M164" s="84">
+        <v>2.4999999999999998E-12</v>
+      </c>
+      <c r="N164" s="84">
+        <v>2.4999999999999998E-12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="25" t="s">
         <v>245</v>
       </c>
@@ -7655,8 +10189,23 @@
       <c r="I165" s="77">
         <v>20</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="77">
+        <v>20</v>
+      </c>
+      <c r="K165" s="77">
+        <v>20</v>
+      </c>
+      <c r="L165" s="77">
+        <v>20</v>
+      </c>
+      <c r="M165" s="77">
+        <v>20</v>
+      </c>
+      <c r="N165" s="77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="25" t="s">
         <v>246</v>
       </c>
@@ -7684,8 +10233,23 @@
       <c r="I166" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166" s="77">
+        <v>0</v>
+      </c>
+      <c r="K166" s="77">
+        <v>0</v>
+      </c>
+      <c r="L166" s="77">
+        <v>0</v>
+      </c>
+      <c r="M166" s="77">
+        <v>0</v>
+      </c>
+      <c r="N166" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="25" t="s">
         <v>247</v>
       </c>
@@ -7713,8 +10277,23 @@
       <c r="I167" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J167" s="77">
+        <v>1</v>
+      </c>
+      <c r="K167" s="77">
+        <v>1</v>
+      </c>
+      <c r="L167" s="77">
+        <v>1</v>
+      </c>
+      <c r="M167" s="77">
+        <v>1</v>
+      </c>
+      <c r="N167" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="25" t="s">
         <v>248</v>
       </c>
@@ -7742,8 +10321,23 @@
       <c r="I168" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="77">
+        <v>0</v>
+      </c>
+      <c r="K168" s="77">
+        <v>0</v>
+      </c>
+      <c r="L168" s="77">
+        <v>0</v>
+      </c>
+      <c r="M168" s="77">
+        <v>0</v>
+      </c>
+      <c r="N168" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="25" t="s">
         <v>79</v>
       </c>
@@ -7771,8 +10365,23 @@
       <c r="I169" s="77">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169" s="77">
+        <v>0.4</v>
+      </c>
+      <c r="K169" s="77">
+        <v>0.4</v>
+      </c>
+      <c r="L169" s="77">
+        <v>0.4</v>
+      </c>
+      <c r="M169" s="77">
+        <v>0.4</v>
+      </c>
+      <c r="N169" s="77">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="31" t="s">
         <v>80</v>
       </c>
@@ -7800,8 +10409,23 @@
       <c r="I170" s="86">
         <v>2.0000000000000001E-9</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J170" s="86">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="K170" s="86">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="L170" s="86">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M170" s="86">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="N170" s="86">
+        <v>2.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="31" t="s">
         <v>249</v>
       </c>
@@ -7829,8 +10453,23 @@
       <c r="I171" s="77">
         <v>25</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="77">
+        <v>25</v>
+      </c>
+      <c r="K171" s="77">
+        <v>25</v>
+      </c>
+      <c r="L171" s="77">
+        <v>25</v>
+      </c>
+      <c r="M171" s="77">
+        <v>25</v>
+      </c>
+      <c r="N171" s="77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="31" t="s">
         <v>250</v>
       </c>
@@ -7858,8 +10497,23 @@
       <c r="I172" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="77">
+        <v>0</v>
+      </c>
+      <c r="K172" s="77">
+        <v>0</v>
+      </c>
+      <c r="L172" s="77">
+        <v>0</v>
+      </c>
+      <c r="M172" s="77">
+        <v>0</v>
+      </c>
+      <c r="N172" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="31" t="s">
         <v>251</v>
       </c>
@@ -7887,8 +10541,23 @@
       <c r="I173" s="77">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="77">
+        <v>3.98</v>
+      </c>
+      <c r="K173" s="77">
+        <v>3.98</v>
+      </c>
+      <c r="L173" s="77">
+        <v>3.98</v>
+      </c>
+      <c r="M173" s="77">
+        <v>3.98</v>
+      </c>
+      <c r="N173" s="77">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="31" t="s">
         <v>252</v>
       </c>
@@ -7916,8 +10585,23 @@
       <c r="I174" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J174" s="77">
+        <v>1</v>
+      </c>
+      <c r="K174" s="77">
+        <v>1</v>
+      </c>
+      <c r="L174" s="77">
+        <v>1</v>
+      </c>
+      <c r="M174" s="77">
+        <v>1</v>
+      </c>
+      <c r="N174" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="31" t="s">
         <v>81</v>
       </c>
@@ -7945,8 +10629,23 @@
       <c r="I175" s="78">
         <v>1.6666666666666666E-4</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J175" s="78">
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="K175" s="78">
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="L175" s="78">
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="M175" s="78">
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="N175" s="78">
+        <v>1.6666666666666666E-4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="11" t="s">
         <v>253</v>
       </c>
@@ -7974,8 +10673,23 @@
       <c r="I176" s="80">
         <v>1E-8</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="80">
+        <v>1E-8</v>
+      </c>
+      <c r="K176" s="80">
+        <v>1E-8</v>
+      </c>
+      <c r="L176" s="80">
+        <v>1E-8</v>
+      </c>
+      <c r="M176" s="80">
+        <v>1E-8</v>
+      </c>
+      <c r="N176" s="80">
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="11" t="s">
         <v>254</v>
       </c>
@@ -8003,8 +10717,23 @@
       <c r="I177" s="77">
         <v>20</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="77">
+        <v>20</v>
+      </c>
+      <c r="K177" s="77">
+        <v>20</v>
+      </c>
+      <c r="L177" s="77">
+        <v>20</v>
+      </c>
+      <c r="M177" s="77">
+        <v>20</v>
+      </c>
+      <c r="N177" s="77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="11" t="s">
         <v>255</v>
       </c>
@@ -8032,8 +10761,23 @@
       <c r="I178" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178" s="77">
+        <v>0</v>
+      </c>
+      <c r="K178" s="77">
+        <v>0</v>
+      </c>
+      <c r="L178" s="77">
+        <v>0</v>
+      </c>
+      <c r="M178" s="77">
+        <v>0</v>
+      </c>
+      <c r="N178" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
         <v>256</v>
       </c>
@@ -8061,8 +10805,23 @@
       <c r="I179" s="77">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="77">
+        <v>2</v>
+      </c>
+      <c r="K179" s="77">
+        <v>2</v>
+      </c>
+      <c r="L179" s="77">
+        <v>2</v>
+      </c>
+      <c r="M179" s="77">
+        <v>2</v>
+      </c>
+      <c r="N179" s="77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
         <v>257</v>
       </c>
@@ -8090,8 +10849,23 @@
       <c r="I180" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="77">
+        <v>1</v>
+      </c>
+      <c r="K180" s="77">
+        <v>1</v>
+      </c>
+      <c r="L180" s="77">
+        <v>1</v>
+      </c>
+      <c r="M180" s="77">
+        <v>1</v>
+      </c>
+      <c r="N180" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
         <v>258</v>
       </c>
@@ -8119,8 +10893,23 @@
       <c r="I181" s="78">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J181" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="K181" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="L181" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="M181" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="N181" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="11" t="s">
         <v>259</v>
       </c>
@@ -8148,8 +10937,23 @@
       <c r="I182" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J182" s="77">
+        <v>1</v>
+      </c>
+      <c r="K182" s="77">
+        <v>1</v>
+      </c>
+      <c r="L182" s="77">
+        <v>1</v>
+      </c>
+      <c r="M182" s="77">
+        <v>1</v>
+      </c>
+      <c r="N182" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="27" t="s">
         <v>260</v>
       </c>
@@ -8177,8 +10981,23 @@
       <c r="I183" s="77">
         <v>2.3533050791148899E-8</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="77">
+        <v>2.3533050791148899E-8</v>
+      </c>
+      <c r="K183" s="77">
+        <v>2.3533050791148899E-8</v>
+      </c>
+      <c r="L183" s="77">
+        <v>2.3533050791148899E-8</v>
+      </c>
+      <c r="M183" s="77">
+        <v>2.3533050791148899E-8</v>
+      </c>
+      <c r="N183" s="77">
+        <v>2.3533050791148899E-8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="27" t="s">
         <v>261</v>
       </c>
@@ -8206,8 +11025,23 @@
       <c r="I184" s="77">
         <v>20</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J184" s="77">
+        <v>20</v>
+      </c>
+      <c r="K184" s="77">
+        <v>20</v>
+      </c>
+      <c r="L184" s="77">
+        <v>20</v>
+      </c>
+      <c r="M184" s="77">
+        <v>20</v>
+      </c>
+      <c r="N184" s="77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="27" t="s">
         <v>262</v>
       </c>
@@ -8235,8 +11069,23 @@
       <c r="I185" s="77">
         <v>-0.187</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J185" s="77">
+        <v>-0.187</v>
+      </c>
+      <c r="K185" s="77">
+        <v>-0.187</v>
+      </c>
+      <c r="L185" s="77">
+        <v>-0.187</v>
+      </c>
+      <c r="M185" s="77">
+        <v>-0.187</v>
+      </c>
+      <c r="N185" s="77">
+        <v>-0.187</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="27" t="s">
         <v>263</v>
       </c>
@@ -8264,8 +11113,23 @@
       <c r="I186" s="77">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J186" s="77">
+        <v>2.48</v>
+      </c>
+      <c r="K186" s="77">
+        <v>2.48</v>
+      </c>
+      <c r="L186" s="77">
+        <v>2.48</v>
+      </c>
+      <c r="M186" s="77">
+        <v>2.48</v>
+      </c>
+      <c r="N186" s="77">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="27" t="s">
         <v>264</v>
       </c>
@@ -8293,8 +11157,23 @@
       <c r="I187" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J187" s="77">
+        <v>1</v>
+      </c>
+      <c r="K187" s="77">
+        <v>1</v>
+      </c>
+      <c r="L187" s="77">
+        <v>1</v>
+      </c>
+      <c r="M187" s="77">
+        <v>1</v>
+      </c>
+      <c r="N187" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="27" t="s">
         <v>265</v>
       </c>
@@ -8322,8 +11201,23 @@
       <c r="I188" s="77">
         <v>6.1060227588121015E-4</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J188" s="77">
+        <v>6.1060227588121015E-4</v>
+      </c>
+      <c r="K188" s="77">
+        <v>6.1060227588121015E-4</v>
+      </c>
+      <c r="L188" s="77">
+        <v>6.1060227588121015E-4</v>
+      </c>
+      <c r="M188" s="77">
+        <v>6.1060227588121015E-4</v>
+      </c>
+      <c r="N188" s="77">
+        <v>6.1060227588121015E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="23" t="s">
         <v>266</v>
       </c>
@@ -8351,8 +11245,23 @@
       <c r="I189" s="85">
         <v>3.9999999999999998E-7</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="85">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="K189" s="85">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="L189" s="85">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="M189" s="85">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="N189" s="85">
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="23" t="s">
         <v>267</v>
       </c>
@@ -8380,8 +11289,23 @@
       <c r="I190" s="77">
         <v>25</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J190" s="77">
+        <v>25</v>
+      </c>
+      <c r="K190" s="77">
+        <v>25</v>
+      </c>
+      <c r="L190" s="77">
+        <v>25</v>
+      </c>
+      <c r="M190" s="77">
+        <v>25</v>
+      </c>
+      <c r="N190" s="77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="23" t="s">
         <v>268</v>
       </c>
@@ -8409,8 +11333,23 @@
       <c r="I191" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J191" s="77">
+        <v>0</v>
+      </c>
+      <c r="K191" s="77">
+        <v>0</v>
+      </c>
+      <c r="L191" s="77">
+        <v>0</v>
+      </c>
+      <c r="M191" s="77">
+        <v>0</v>
+      </c>
+      <c r="N191" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="23" t="s">
         <v>269</v>
       </c>
@@ -8438,8 +11377,23 @@
       <c r="I192" s="77">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J192" s="77">
+        <v>3.98</v>
+      </c>
+      <c r="K192" s="77">
+        <v>3.98</v>
+      </c>
+      <c r="L192" s="77">
+        <v>3.98</v>
+      </c>
+      <c r="M192" s="77">
+        <v>3.98</v>
+      </c>
+      <c r="N192" s="77">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="23" t="s">
         <v>270</v>
       </c>
@@ -8467,8 +11421,23 @@
       <c r="I193" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="77">
+        <v>1</v>
+      </c>
+      <c r="K193" s="77">
+        <v>1</v>
+      </c>
+      <c r="L193" s="77">
+        <v>1</v>
+      </c>
+      <c r="M193" s="77">
+        <v>1</v>
+      </c>
+      <c r="N193" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="23" t="s">
         <v>271</v>
       </c>
@@ -8496,8 +11465,23 @@
       <c r="I194" s="78">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J194" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="K194" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="L194" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="M194" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="N194" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
         <v>272</v>
       </c>
@@ -8525,8 +11509,23 @@
       <c r="I195" s="85">
         <v>3.9999999999999998E-7</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J195" s="85">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="K195" s="85">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="L195" s="85">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="M195" s="85">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="N195" s="85">
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
         <v>273</v>
       </c>
@@ -8554,8 +11553,23 @@
       <c r="I196" s="77">
         <v>25</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="77">
+        <v>25</v>
+      </c>
+      <c r="K196" s="77">
+        <v>25</v>
+      </c>
+      <c r="L196" s="77">
+        <v>25</v>
+      </c>
+      <c r="M196" s="77">
+        <v>25</v>
+      </c>
+      <c r="N196" s="77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
         <v>274</v>
       </c>
@@ -8583,8 +11597,23 @@
       <c r="I197" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J197" s="77">
+        <v>0</v>
+      </c>
+      <c r="K197" s="77">
+        <v>0</v>
+      </c>
+      <c r="L197" s="77">
+        <v>0</v>
+      </c>
+      <c r="M197" s="77">
+        <v>0</v>
+      </c>
+      <c r="N197" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
         <v>275</v>
       </c>
@@ -8612,8 +11641,23 @@
       <c r="I198" s="77">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J198" s="77">
+        <v>3.98</v>
+      </c>
+      <c r="K198" s="77">
+        <v>3.98</v>
+      </c>
+      <c r="L198" s="77">
+        <v>3.98</v>
+      </c>
+      <c r="M198" s="77">
+        <v>3.98</v>
+      </c>
+      <c r="N198" s="77">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>276</v>
       </c>
@@ -8641,8 +11685,23 @@
       <c r="I199" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J199" s="77">
+        <v>1</v>
+      </c>
+      <c r="K199" s="77">
+        <v>1</v>
+      </c>
+      <c r="L199" s="77">
+        <v>1</v>
+      </c>
+      <c r="M199" s="77">
+        <v>1</v>
+      </c>
+      <c r="N199" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
         <v>277</v>
       </c>
@@ -8670,8 +11729,23 @@
       <c r="I200" s="78">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J200" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="K200" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="L200" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="M200" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="N200" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" s="29" t="s">
         <v>278</v>
       </c>
@@ -8699,8 +11773,23 @@
       <c r="I201" s="85">
         <v>1.9999999999999999E-7</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J201" s="85">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="K201" s="85">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="L201" s="85">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M201" s="85">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="N201" s="85">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" s="29" t="s">
         <v>279</v>
       </c>
@@ -8728,8 +11817,23 @@
       <c r="I202" s="77">
         <v>25</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J202" s="77">
+        <v>25</v>
+      </c>
+      <c r="K202" s="77">
+        <v>25</v>
+      </c>
+      <c r="L202" s="77">
+        <v>25</v>
+      </c>
+      <c r="M202" s="77">
+        <v>25</v>
+      </c>
+      <c r="N202" s="77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" s="29" t="s">
         <v>280</v>
       </c>
@@ -8757,8 +11861,23 @@
       <c r="I203" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J203" s="77">
+        <v>0</v>
+      </c>
+      <c r="K203" s="77">
+        <v>0</v>
+      </c>
+      <c r="L203" s="77">
+        <v>0</v>
+      </c>
+      <c r="M203" s="77">
+        <v>0</v>
+      </c>
+      <c r="N203" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" s="29" t="s">
         <v>281</v>
       </c>
@@ -8786,8 +11905,23 @@
       <c r="I204" s="77">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J204" s="77">
+        <v>3.98</v>
+      </c>
+      <c r="K204" s="77">
+        <v>3.98</v>
+      </c>
+      <c r="L204" s="77">
+        <v>3.98</v>
+      </c>
+      <c r="M204" s="77">
+        <v>3.98</v>
+      </c>
+      <c r="N204" s="77">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="29" t="s">
         <v>282</v>
       </c>
@@ -8815,8 +11949,23 @@
       <c r="I205" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J205" s="77">
+        <v>1</v>
+      </c>
+      <c r="K205" s="77">
+        <v>1</v>
+      </c>
+      <c r="L205" s="77">
+        <v>1</v>
+      </c>
+      <c r="M205" s="77">
+        <v>1</v>
+      </c>
+      <c r="N205" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="29" t="s">
         <v>283</v>
       </c>
@@ -8844,8 +11993,23 @@
       <c r="I206" s="78">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J206" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="K206" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="L206" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="M206" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="N206" s="78">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" s="90" t="s">
         <v>361</v>
       </c>
@@ -8873,8 +12037,23 @@
       <c r="I207" s="95" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J207" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="K207" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="L207" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="M207" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="N207" s="95" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>490</v>
       </c>
@@ -8902,8 +12081,23 @@
       <c r="I208" s="2">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J208" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K208" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L208" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M208" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N208" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>494</v>
       </c>
@@ -8931,8 +12125,23 @@
       <c r="I209" s="98">
         <v>-100000</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J209" s="98">
+        <v>-100000</v>
+      </c>
+      <c r="K209" s="98">
+        <v>-100000</v>
+      </c>
+      <c r="L209" s="98">
+        <v>-100000</v>
+      </c>
+      <c r="M209" s="98">
+        <v>-100000</v>
+      </c>
+      <c r="N209" s="98">
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>516</v>
       </c>
@@ -8962,8 +12171,28 @@
         <f>I209</f>
         <v>-100000</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J210" s="98">
+        <f>J209</f>
+        <v>-100000</v>
+      </c>
+      <c r="K210" s="98">
+        <f>K209</f>
+        <v>-100000</v>
+      </c>
+      <c r="L210" s="98">
+        <f>L209</f>
+        <v>-100000</v>
+      </c>
+      <c r="M210" s="98">
+        <f>M209</f>
+        <v>-100000</v>
+      </c>
+      <c r="N210" s="98">
+        <f>N209</f>
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>507</v>
       </c>
@@ -8991,8 +12220,23 @@
       <c r="I211" s="99">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J211" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="K211" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="L211" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="M211" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="N211" s="99">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>508</v>
       </c>
@@ -9020,8 +12264,23 @@
       <c r="I212" s="99" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J212" s="99" t="s">
+        <v>474</v>
+      </c>
+      <c r="K212" s="99" t="s">
+        <v>474</v>
+      </c>
+      <c r="L212" s="99" t="s">
+        <v>474</v>
+      </c>
+      <c r="M212" s="99" t="s">
+        <v>474</v>
+      </c>
+      <c r="N212" s="99" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>509</v>
       </c>
@@ -9049,8 +12308,23 @@
       <c r="I213" s="99">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J213" s="99">
+        <v>0</v>
+      </c>
+      <c r="K213" s="99">
+        <v>0</v>
+      </c>
+      <c r="L213" s="99">
+        <v>0</v>
+      </c>
+      <c r="M213" s="99">
+        <v>0</v>
+      </c>
+      <c r="N213" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>510</v>
       </c>
@@ -9078,8 +12352,23 @@
       <c r="I214" s="99">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J214" s="99">
+        <v>1E-3</v>
+      </c>
+      <c r="K214" s="99">
+        <v>1E-3</v>
+      </c>
+      <c r="L214" s="99">
+        <v>1E-3</v>
+      </c>
+      <c r="M214" s="99">
+        <v>1E-3</v>
+      </c>
+      <c r="N214" s="99">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>518</v>
       </c>
@@ -9107,8 +12396,23 @@
       <c r="I215" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J215" s="2">
+        <v>29</v>
+      </c>
+      <c r="K215" s="2">
+        <v>29</v>
+      </c>
+      <c r="L215" s="2">
+        <v>29</v>
+      </c>
+      <c r="M215" s="2">
+        <v>29</v>
+      </c>
+      <c r="N215" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>520</v>
       </c>
@@ -9139,8 +12443,28 @@
         <f>1250*0.000001/5</f>
         <v>2.5000000000000001E-4</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J216" s="98">
+        <f>1250*0.000001/5</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="K216" s="98">
+        <f>1250*0.000001/5</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="L216" s="98">
+        <f>1250*0.000001/5</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="M216" s="98">
+        <f>1250*0.000001/5</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="N216" s="98">
+        <f>1250*0.000001/5</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>523</v>
       </c>
@@ -9168,8 +12492,23 @@
       <c r="I217" s="99">
         <v>9.9999999999999994E-12</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J217" s="99">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="K217" s="99">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="L217" s="99">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="M217" s="99">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="N217" s="99">
+        <v>9.9999999999999994E-12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>526</v>
       </c>
@@ -9197,65 +12536,24 @@
       <c r="I218" s="98">
         <v>2.0000000000000001E-4</v>
       </c>
+      <c r="J218" s="98">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K218" s="98">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L218" s="98">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M218" s="98">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N218" s="98">
+        <v>2.0000000000000001E-4</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H125:I126">
-    <cfRule type="colorScale" priority="243">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H130:I130">
-    <cfRule type="colorScale" priority="244">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="245">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H131:I131">
-    <cfRule type="colorScale" priority="246">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="247">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H136:I136">
     <cfRule type="colorScale" priority="248">
       <colorScale>
         <cfvo type="min"/>
@@ -9267,7 +12565,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H142:I142">
+  <conditionalFormatting sqref="H130:N130">
     <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="min"/>
@@ -9288,6 +12586,8 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H131:N131">
     <cfRule type="colorScale" priority="251">
       <colorScale>
         <cfvo type="min"/>
@@ -9298,8 +12598,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H158:I158">
     <cfRule type="colorScale" priority="252">
       <colorScale>
         <cfvo type="min"/>
@@ -9310,6 +12608,8 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H136:N136">
     <cfRule type="colorScale" priority="253">
       <colorScale>
         <cfvo type="min"/>
@@ -9320,6 +12620,8 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H142:N142">
     <cfRule type="colorScale" priority="254">
       <colorScale>
         <cfvo type="min"/>
@@ -9330,8 +12632,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H164:I164">
     <cfRule type="colorScale" priority="255">
       <colorScale>
         <cfvo type="min"/>
@@ -9352,7 +12652,121 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H158:N158">
     <cfRule type="colorScale" priority="257">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="258">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="259">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H164:N164">
+    <cfRule type="colorScale" priority="260">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="261">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="262">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J125:J126">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K125:K126">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L125:L126">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M125:M126">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N125:N126">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
